--- a/DCF Models/ON.xlsx
+++ b/DCF Models/ON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\DCF Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EF3F7A-7D41-4EAA-A505-7B062213FEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E69164-60CD-4EA6-9505-7901183A6E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="5655" windowWidth="31110" windowHeight="15045" xr2:uid="{9987E3B3-A763-45BC-85F4-2591A398EDE1}"/>
+    <workbookView xWindow="16545" yWindow="6030" windowWidth="27045" windowHeight="15045" xr2:uid="{9987E3B3-A763-45BC-85F4-2591A398EDE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>20Q2</t>
   </si>
@@ -196,6 +196,12 @@
   <si>
     <t>x</t>
   </si>
+  <si>
+    <t>During 2022, we completed the divestitures of certain manufacturing facilities. We believe these actions, among others, will allow us to transition from sub-scale factories into a lighter internal fabrication model where our financial performance will be less volatile and not as heavily influenced by our internal manufacturing volumes</t>
+  </si>
+  <si>
+    <t>We use third-party contractors for some of our manufacturing activities, primarily for wafer fabrication and the assembly and testing of finished goods. Our agreements with these contract manufacturers typically require us to forecast product needs and commit to purchase services consistent with these forecasts. In some cases, longer-term commitments are required in the early stages of the relationship. These manufacturers collectively accounted for approximately 43% of our total manufacturing input costs in 2022, 37% in 2021 and 33% in 2020.</t>
+  </si>
 </sst>
 </file>
 
@@ -248,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -264,17 +270,14 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8290BA3C-E0A0-4BAF-9A3B-BC4AD16B37E0}">
-  <dimension ref="M3:N17"/>
+  <dimension ref="B2:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B8" sqref="B8:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +759,31 @@
     <col min="14" max="14" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
       <c r="M3" t="s">
         <v>42</v>
       </c>
@@ -764,17 +791,49 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="5" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
       <c r="M5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
       <c r="M6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M7" t="s">
         <v>24</v>
       </c>
@@ -782,15 +841,37 @@
         <v>76.28</v>
       </c>
     </row>
-    <row r="8" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
       <c r="M8" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="1">
         <v>433.2</v>
       </c>
     </row>
-    <row r="9" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
       <c r="M9" t="s">
         <v>25</v>
       </c>
@@ -799,23 +880,53 @@
         <v>33044.495999999999</v>
       </c>
     </row>
-    <row r="10" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
       <c r="M10" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="1">
         <v>2919</v>
       </c>
     </row>
-    <row r="11" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
       <c r="M11" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="1">
         <v>4045.6</v>
       </c>
     </row>
-    <row r="12" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
       <c r="M12" t="s">
         <v>28</v>
       </c>
@@ -824,16 +935,28 @@
         <v>34171.095999999998</v>
       </c>
     </row>
-    <row r="15" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M15" t="s">
         <v>43</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="1">
         <f>Dash!C4</f>
         <v>35110.668973847663</v>
       </c>
     </row>
-    <row r="16" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M16" t="s">
         <v>44</v>
       </c>
@@ -846,6 +969,10 @@
       <c r="M17" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:K6"/>
+    <mergeCell ref="B8:K13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1266,235 +1393,235 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="3" spans="2:135" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="2:135" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="1">
         <v>2919</v>
       </c>
-      <c r="O3" s="16"/>
-      <c r="Q3" s="15">
+      <c r="O3" s="15"/>
+      <c r="Q3" s="1">
         <v>617.6</v>
       </c>
-      <c r="R3" s="15">
+      <c r="R3" s="1">
         <v>1028.0999999999999</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="1">
         <v>949.2</v>
       </c>
-      <c r="T3" s="15">
+      <c r="T3" s="1">
         <v>1069.5999999999999</v>
       </c>
-      <c r="U3" s="15">
+      <c r="U3" s="1">
         <v>894.2</v>
       </c>
-      <c r="V3" s="15">
+      <c r="V3" s="1">
         <v>1080.7</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="1">
         <v>1352.6</v>
       </c>
-      <c r="X3" s="15">
+      <c r="X3" s="1">
         <v>2919</v>
       </c>
     </row>
-    <row r="4" spans="2:135" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="2:135" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="1">
         <v>1616.8</v>
       </c>
-      <c r="O4" s="16"/>
-      <c r="Q4" s="15">
+      <c r="O4" s="15"/>
+      <c r="Q4" s="1">
         <v>750.4</v>
       </c>
-      <c r="R4" s="15">
+      <c r="R4" s="1">
         <v>1030.2</v>
       </c>
-      <c r="S4" s="15">
+      <c r="S4" s="1">
         <v>1089.5</v>
       </c>
-      <c r="T4" s="15">
+      <c r="T4" s="1">
         <v>1225.2</v>
       </c>
-      <c r="U4" s="15">
+      <c r="U4" s="1">
         <v>1232.4000000000001</v>
       </c>
-      <c r="V4" s="15">
+      <c r="V4" s="1">
         <v>1251.4000000000001</v>
       </c>
-      <c r="W4" s="15">
+      <c r="W4" s="1">
         <v>1379.5</v>
       </c>
-      <c r="X4" s="15">
+      <c r="X4" s="1">
         <v>1616.8</v>
       </c>
     </row>
-    <row r="5" spans="2:135" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="2:135" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="1">
         <v>3450.7</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="Q5" s="15">
+      <c r="O5" s="15"/>
+      <c r="Q5" s="1">
         <v>1274.0999999999999</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="1">
         <v>2159.1</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="1">
         <v>2279.1</v>
       </c>
-      <c r="T5" s="15">
+      <c r="T5" s="1">
         <v>2549.6</v>
       </c>
-      <c r="U5" s="15">
+      <c r="U5" s="1">
         <v>2591.6</v>
       </c>
-      <c r="V5" s="15">
+      <c r="V5" s="1">
         <v>2512.3000000000002</v>
       </c>
-      <c r="W5" s="15">
+      <c r="W5" s="1">
         <v>2524.3000000000002</v>
       </c>
-      <c r="X5" s="15">
+      <c r="X5" s="1">
         <v>3450.7</v>
       </c>
     </row>
-    <row r="6" spans="2:135" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+    <row r="6" spans="2:135" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="1">
         <f>852.1+147.8+3045.7</f>
         <v>4045.6</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="Q6" s="15">
+      <c r="O6" s="15"/>
+      <c r="Q6" s="1">
         <f>246.2+543.4+850.5</f>
         <v>1640.1</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="1">
         <f>434+553.8+3068.5</f>
         <v>4056.3</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S6" s="1">
         <f>548+248.1+2703.7</f>
         <v>3499.7999999999997</v>
       </c>
-      <c r="T6" s="15">
+      <c r="T6" s="1">
         <f>671.7+138.5+2627.6</f>
         <v>3437.8</v>
       </c>
-      <c r="U6" s="15">
+      <c r="U6" s="1">
         <f>543.6+736+2876.5</f>
         <v>4156.1000000000004</v>
       </c>
-      <c r="V6" s="15">
+      <c r="V6" s="1">
         <f>572.9+531.6+2959.7</f>
         <v>4064.2</v>
       </c>
-      <c r="W6" s="15">
+      <c r="W6" s="1">
         <f>635.1+160.7+2913.9</f>
         <v>3709.7</v>
       </c>
-      <c r="X6" s="15">
+      <c r="X6" s="1">
         <f>852.1+147.8+3045.7</f>
         <v>4045.6</v>
       </c>
     </row>
-    <row r="7" spans="2:135" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+    <row r="7" spans="2:135" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="1">
         <f>M3-M6</f>
         <v>-1126.5999999999999</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="15">
+      <c r="O7" s="15"/>
+      <c r="P7" s="1">
         <f>P3-P6</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="1">
         <f>Q3-Q6</f>
         <v>-1022.4999999999999</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="1">
         <f>R3-R6</f>
         <v>-3028.2000000000003</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S7" s="1">
         <f t="shared" ref="S7:X7" si="0">S3-S6</f>
         <v>-2550.5999999999995</v>
       </c>
-      <c r="T7" s="15">
+      <c r="T7" s="1">
         <f t="shared" si="0"/>
         <v>-2368.2000000000003</v>
       </c>
-      <c r="U7" s="15">
+      <c r="U7" s="1">
         <f t="shared" si="0"/>
         <v>-3261.9000000000005</v>
       </c>
-      <c r="V7" s="15">
+      <c r="V7" s="1">
         <f t="shared" si="0"/>
         <v>-2983.5</v>
       </c>
-      <c r="W7" s="15">
+      <c r="W7" s="1">
         <f t="shared" si="0"/>
         <v>-2357.1</v>
       </c>
-      <c r="X7" s="15">
+      <c r="X7" s="1">
         <f t="shared" si="0"/>
         <v>-1126.5999999999999</v>
       </c>
-      <c r="Y7" s="15">
+      <c r="Y7" s="1">
         <f>X7+Y22</f>
         <v>835.61008250000054</v>
       </c>
-      <c r="Z7" s="15">
+      <c r="Z7" s="1">
         <f>Y7+Z22</f>
         <v>2964.5088816781254</v>
       </c>
-      <c r="AA7" s="15">
+      <c r="AA7" s="1">
         <f>Z7+AA22</f>
         <v>5212.6740919296763</v>
       </c>
-      <c r="AB7" s="15">
+      <c r="AB7" s="1">
         <f>AA7+AB22</f>
         <v>7527.0087316934514</v>
       </c>
-      <c r="AC7" s="15">
-        <f t="shared" ref="Z7:AH7" si="1">AB7+AC22</f>
+      <c r="AC7" s="1">
+        <f t="shared" ref="AC7:AH7" si="1">AB7+AC22</f>
         <v>9829.9707651930621</v>
       </c>
-      <c r="AD7" s="15">
+      <c r="AD7" s="1">
         <f t="shared" si="1"/>
         <v>12069.517809135405</v>
       </c>
-      <c r="AE7" s="15">
+      <c r="AE7" s="1">
         <f t="shared" si="1"/>
         <v>14508.035393210032</v>
       </c>
-      <c r="AF7" s="15">
+      <c r="AF7" s="1">
         <f t="shared" si="1"/>
         <v>17160.238159434226</v>
       </c>
-      <c r="AG7" s="15">
+      <c r="AG7" s="1">
         <f t="shared" si="1"/>
         <v>20041.856638748759</v>
       </c>
-      <c r="AH7" s="15">
+      <c r="AH7" s="1">
         <f t="shared" si="1"/>
         <v>23169.705266771249</v>
       </c>
     </row>
-    <row r="8" spans="2:135" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O8" s="16"/>
+    <row r="8" spans="2:135" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="15"/>
     </row>
     <row r="9" spans="2:135" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
@@ -1682,7 +1809,7 @@
       <c r="L10" s="1">
         <v>1134.3</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="1">
         <f>X10-L10-K10-J10</f>
         <v>1083.0999999999997</v>
       </c>
@@ -1976,7 +2103,7 @@
       <c r="L12" s="1">
         <v>145.4</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="1">
         <f t="shared" ref="M12:M15" si="8">X12-L12-K12-J12</f>
         <v>136.40000000000003</v>
       </c>
@@ -2107,7 +2234,7 @@
         <f>69.5+84.9</f>
         <v>154.4</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="1">
         <f t="shared" si="8"/>
         <v>184.39999999999992</v>
       </c>
@@ -2236,7 +2363,7 @@
       <c r="L14" s="1">
         <v>21.9</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="1">
         <f t="shared" si="8"/>
         <v>16.100000000000005</v>
       </c>
@@ -2335,7 +2462,7 @@
         <f>40.3+271.8</f>
         <v>312.10000000000002</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="1">
         <f t="shared" si="8"/>
         <v>-20.700000000000031</v>
       </c>
@@ -2745,297 +2872,295 @@
       <c r="CB17" s="5"/>
       <c r="CC17" s="5"/>
     </row>
-    <row r="18" spans="1:218" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
+    <row r="18" spans="1:218" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="1">
         <v>-40.4</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="1">
         <v>-41.300000000000004</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="1">
         <v>-41.25</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="1">
         <v>-33.799999999999997</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="1">
         <v>-32.9</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="1">
         <v>-31.4</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="1">
         <v>-31.7</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="1">
         <v>-21.200000000000003</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="1">
         <f>-22.1+1.1</f>
         <v>-21</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="1">
         <f>-23.7+4.9</f>
         <v>-18.799999999999997</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="1">
         <f t="shared" ref="M18:M19" si="18">X18-L18-K18-J18</f>
         <v>-18.400000000000006</v>
       </c>
-      <c r="O18" s="18"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15">
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1">
         <f>-49.7+1.1</f>
         <v>-48.6</v>
       </c>
-      <c r="R18" s="15">
+      <c r="R18" s="1">
         <f>-145.3+4.5</f>
         <v>-140.80000000000001</v>
       </c>
-      <c r="S18" s="15">
+      <c r="S18" s="1">
         <f>-141.2+3</f>
         <v>-138.19999999999999</v>
       </c>
-      <c r="T18" s="15">
+      <c r="T18" s="1">
         <f>-128.2+6.1</f>
         <v>-122.1</v>
       </c>
-      <c r="U18" s="15">
+      <c r="U18" s="1">
         <f>-148.3+10.2</f>
         <v>-138.10000000000002</v>
       </c>
-      <c r="V18" s="15">
+      <c r="V18" s="1">
         <f>-168.4+4.9</f>
         <v>-163.5</v>
       </c>
-      <c r="W18" s="15">
+      <c r="W18" s="1">
         <f>-130.4+1.4</f>
         <v>-129</v>
       </c>
-      <c r="X18" s="15">
+      <c r="X18" s="1">
         <f>-94.9+15.5</f>
         <v>-79.400000000000006</v>
       </c>
-      <c r="Y18" s="15">
+      <c r="Y18" s="1">
         <f>X7*Y37</f>
         <v>-54.076799999999999</v>
       </c>
-      <c r="Z18" s="15">
+      <c r="Z18" s="1">
         <f>Y7*Z37</f>
         <v>37.602453712500022</v>
       </c>
-      <c r="AA18" s="15">
+      <c r="AA18" s="1">
         <f>Z7*AA37</f>
         <v>133.40289967551564</v>
       </c>
-      <c r="AB18" s="15">
-        <f t="shared" ref="AA18:AH18" si="19">AA7*AB37</f>
+      <c r="AB18" s="1">
+        <f t="shared" ref="AB18:AH18" si="19">AA7*AB37</f>
         <v>234.57033413683541</v>
       </c>
-      <c r="AC18" s="15">
+      <c r="AC18" s="1">
         <f>AB7*AC37</f>
         <v>316.134366731125</v>
       </c>
-      <c r="AD18" s="15">
+      <c r="AD18" s="1">
         <f>AC7*AD37</f>
         <v>385.82635253382767</v>
       </c>
-      <c r="AE18" s="15">
+      <c r="AE18" s="1">
         <f>AD7*AE37</f>
         <v>473.72857400856464</v>
       </c>
-      <c r="AF18" s="15">
+      <c r="AF18" s="1">
         <f>AE7*AF37</f>
         <v>569.44038918349372</v>
       </c>
-      <c r="AG18" s="15">
+      <c r="AG18" s="1">
         <f>AF7*AG37</f>
         <v>673.53934775779339</v>
       </c>
-      <c r="AH18" s="15">
+      <c r="AH18" s="1">
         <f t="shared" si="19"/>
         <v>786.64287307088875</v>
       </c>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="15"/>
-      <c r="AL18" s="15"/>
-      <c r="AM18" s="15"/>
-      <c r="AN18" s="15"/>
-      <c r="AO18" s="15"/>
-      <c r="AP18" s="15"/>
-      <c r="AQ18" s="15"/>
-      <c r="AR18" s="15"/>
-      <c r="AS18" s="15"/>
-      <c r="AT18" s="15"/>
-      <c r="AU18" s="15"/>
-      <c r="AV18" s="15"/>
-      <c r="AW18" s="15"/>
-      <c r="AX18" s="15"/>
-      <c r="AY18" s="15"/>
-      <c r="AZ18" s="15"/>
-      <c r="BA18" s="15"/>
-      <c r="BB18" s="15"/>
-      <c r="BC18" s="15"/>
-      <c r="BD18" s="15"/>
-      <c r="BE18" s="15"/>
-      <c r="BF18" s="15"/>
-      <c r="BG18" s="15"/>
-      <c r="BH18" s="15"/>
-      <c r="BI18" s="15"/>
-      <c r="BJ18" s="15"/>
-      <c r="BK18" s="15"/>
-      <c r="BL18" s="15"/>
-      <c r="BM18" s="15"/>
-      <c r="BN18" s="15"/>
-      <c r="BO18" s="15"/>
-      <c r="BP18" s="15"/>
-      <c r="BQ18" s="15"/>
-      <c r="BR18" s="15"/>
-      <c r="BS18" s="15"/>
-      <c r="BT18" s="15"/>
-      <c r="BU18" s="15"/>
-      <c r="BV18" s="15"/>
-      <c r="BW18" s="15"/>
-      <c r="BX18" s="15"/>
-      <c r="BY18" s="15"/>
-      <c r="BZ18" s="15"/>
-      <c r="CA18" s="15"/>
-      <c r="CB18" s="15"/>
-      <c r="CC18" s="15"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1"/>
+      <c r="BI18" s="1"/>
+      <c r="BJ18" s="1"/>
+      <c r="BK18" s="1"/>
+      <c r="BL18" s="1"/>
+      <c r="BM18" s="1"/>
+      <c r="BN18" s="1"/>
+      <c r="BO18" s="1"/>
+      <c r="BP18" s="1"/>
+      <c r="BQ18" s="1"/>
+      <c r="BR18" s="1"/>
+      <c r="BS18" s="1"/>
+      <c r="BT18" s="1"/>
+      <c r="BU18" s="1"/>
+      <c r="BV18" s="1"/>
+      <c r="BW18" s="1"/>
+      <c r="BX18" s="1"/>
+      <c r="BY18" s="1"/>
+      <c r="BZ18" s="1"/>
+      <c r="CA18" s="1"/>
+      <c r="CB18" s="1"/>
+      <c r="CC18" s="1"/>
     </row>
-    <row r="19" spans="1:218" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
+    <row r="19" spans="1:218" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="1">
         <v>-2.8</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="1">
         <v>0.4</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="1">
         <v>-6.3</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="1">
         <v>4.5</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="1">
         <v>-27.3</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="1">
         <v>4.3999999999999995</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="1">
         <v>17.599999999999998</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="1">
         <v>2</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="1">
         <f>-7.3+1.9+6.4</f>
         <v>1</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="1">
         <f t="shared" si="18"/>
         <v>77.5</v>
       </c>
-      <c r="O19" s="18"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1">
         <f>-0.4+7.7</f>
         <v>7.3</v>
       </c>
-      <c r="R19" s="15">
+      <c r="R19" s="1">
         <f>92.2-6.3-0.6</f>
         <v>85.300000000000011</v>
       </c>
-      <c r="S19" s="15">
+      <c r="S19" s="1">
         <f>-47.2+12.5+47.6-8.8</f>
         <v>4.0999999999999979</v>
       </c>
-      <c r="T19" s="15">
+      <c r="T19" s="1">
         <f>-4.6+5+36.6-7.1</f>
         <v>29.9</v>
       </c>
-      <c r="U19" s="15">
+      <c r="U19" s="1">
         <f>-6.2-11.8</f>
         <v>-18</v>
       </c>
-      <c r="V19" s="15">
+      <c r="V19" s="1">
         <v>-8.6</v>
       </c>
-      <c r="W19" s="15">
+      <c r="W19" s="1">
         <f>-29+10.2+18</f>
         <v>-0.80000000000000071</v>
       </c>
-      <c r="X19" s="15">
+      <c r="X19" s="1">
         <f>-7.1+67+21.7</f>
         <v>81.599999999999994</v>
       </c>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="15"/>
-      <c r="AK19" s="15"/>
-      <c r="AL19" s="15"/>
-      <c r="AM19" s="15"/>
-      <c r="AN19" s="15"/>
-      <c r="AO19" s="15"/>
-      <c r="AP19" s="15"/>
-      <c r="AQ19" s="15"/>
-      <c r="AR19" s="15"/>
-      <c r="AS19" s="15"/>
-      <c r="AT19" s="15"/>
-      <c r="AU19" s="15"/>
-      <c r="AV19" s="15"/>
-      <c r="AW19" s="15"/>
-      <c r="AX19" s="15"/>
-      <c r="AY19" s="15"/>
-      <c r="AZ19" s="15"/>
-      <c r="BA19" s="15"/>
-      <c r="BB19" s="15"/>
-      <c r="BC19" s="15"/>
-      <c r="BD19" s="15"/>
-      <c r="BE19" s="15"/>
-      <c r="BF19" s="15"/>
-      <c r="BG19" s="15"/>
-      <c r="BH19" s="15"/>
-      <c r="BI19" s="15"/>
-      <c r="BJ19" s="15"/>
-      <c r="BK19" s="15"/>
-      <c r="BL19" s="15"/>
-      <c r="BM19" s="15"/>
-      <c r="BN19" s="15"/>
-      <c r="BO19" s="15"/>
-      <c r="BP19" s="15"/>
-      <c r="BQ19" s="15"/>
-      <c r="BR19" s="15"/>
-      <c r="BS19" s="15"/>
-      <c r="BT19" s="15"/>
-      <c r="BU19" s="15"/>
-      <c r="BV19" s="15"/>
-      <c r="BW19" s="15"/>
-      <c r="BX19" s="15"/>
-      <c r="BY19" s="15"/>
-      <c r="BZ19" s="15"/>
-      <c r="CA19" s="15"/>
-      <c r="CB19" s="15"/>
-      <c r="CC19" s="15"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="1"/>
+      <c r="BK19" s="1"/>
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="1"/>
+      <c r="BN19" s="1"/>
+      <c r="BO19" s="1"/>
+      <c r="BP19" s="1"/>
+      <c r="BQ19" s="1"/>
+      <c r="BR19" s="1"/>
+      <c r="BS19" s="1"/>
+      <c r="BT19" s="1"/>
+      <c r="BU19" s="1"/>
+      <c r="BV19" s="1"/>
+      <c r="BW19" s="1"/>
+      <c r="BX19" s="1"/>
+      <c r="BY19" s="1"/>
+      <c r="BZ19" s="1"/>
+      <c r="CA19" s="1"/>
+      <c r="CB19" s="1"/>
+      <c r="CC19" s="1"/>
     </row>
     <row r="20" spans="1:218" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
@@ -3210,157 +3335,156 @@
       <c r="CB20" s="5"/>
       <c r="CC20" s="5"/>
     </row>
-    <row r="21" spans="1:218" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="1:218" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="1">
         <v>-0.8</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="1">
         <v>83.1</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="1">
         <v>-30.7</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="1">
         <v>-7.1</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="1">
         <v>-37.9</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="1">
         <v>-61.8</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="1">
         <v>-39.799999999999997</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="1">
         <v>-97.1</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="1">
         <v>-107.4</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="1">
         <v>-94.9</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M21" s="1">
         <f>X21-L21-K21-J21</f>
         <v>-159.00000000000003</v>
       </c>
-      <c r="O21" s="18"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15">
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1">
         <v>-10.8</v>
       </c>
-      <c r="R21" s="15">
+      <c r="R21" s="1">
         <v>3.9</v>
       </c>
-      <c r="S21" s="15">
+      <c r="S21" s="1">
         <v>265.5</v>
       </c>
-      <c r="T21" s="15">
+      <c r="T21" s="1">
         <v>-125.1</v>
       </c>
-      <c r="U21" s="15">
+      <c r="U21" s="1">
         <v>-62.7</v>
       </c>
-      <c r="V21" s="15">
+      <c r="V21" s="1">
         <v>59.8</v>
       </c>
-      <c r="W21" s="15">
+      <c r="W21" s="1">
         <v>-146.6</v>
       </c>
-      <c r="X21" s="15">
+      <c r="X21" s="1">
         <v>-458.4</v>
       </c>
-      <c r="Y21" s="15">
+      <c r="Y21" s="1">
         <f>Y20*Y34</f>
         <v>-346.27236750000003</v>
       </c>
-      <c r="Z21" s="15">
+      <c r="Z21" s="1">
         <f t="shared" ref="Z21:AH21" si="25">Z20*Z34</f>
         <v>-375.68802338437496</v>
       </c>
-      <c r="AA21" s="15">
+      <c r="AA21" s="1">
         <f t="shared" si="25"/>
         <v>-396.73503710321484</v>
       </c>
-      <c r="AB21" s="15">
+      <c r="AB21" s="1">
         <f t="shared" si="25"/>
         <v>-408.41199525243098</v>
       </c>
-      <c r="AC21" s="15">
+      <c r="AC21" s="1">
         <f t="shared" si="25"/>
         <v>-406.40506473522538</v>
       </c>
-      <c r="AD21" s="15">
+      <c r="AD21" s="1">
         <f t="shared" si="25"/>
         <v>-395.2141842251192</v>
       </c>
-      <c r="AE21" s="15">
+      <c r="AE21" s="1">
         <f t="shared" si="25"/>
         <v>-430.32663248375769</v>
       </c>
-      <c r="AF21" s="15">
+      <c r="AF21" s="1">
         <f t="shared" si="25"/>
         <v>-468.03578227485775</v>
       </c>
-      <c r="AG21" s="15">
+      <c r="AG21" s="1">
         <f t="shared" si="25"/>
         <v>-508.52090811432936</v>
       </c>
-      <c r="AH21" s="15">
+      <c r="AH21" s="1">
         <f t="shared" si="25"/>
         <v>-551.97328729808657</v>
       </c>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="15"/>
-      <c r="AM21" s="15"/>
-      <c r="AN21" s="15"/>
-      <c r="AO21" s="15"/>
-      <c r="AP21" s="15"/>
-      <c r="AQ21" s="15"/>
-      <c r="AR21" s="15"/>
-      <c r="AS21" s="15"/>
-      <c r="AT21" s="15"/>
-      <c r="AU21" s="15"/>
-      <c r="AV21" s="15"/>
-      <c r="AW21" s="15"/>
-      <c r="AX21" s="15"/>
-      <c r="AY21" s="15"/>
-      <c r="AZ21" s="15"/>
-      <c r="BA21" s="15"/>
-      <c r="BB21" s="15"/>
-      <c r="BC21" s="15"/>
-      <c r="BD21" s="15"/>
-      <c r="BE21" s="15"/>
-      <c r="BF21" s="15"/>
-      <c r="BG21" s="15"/>
-      <c r="BH21" s="15"/>
-      <c r="BI21" s="15"/>
-      <c r="BJ21" s="15"/>
-      <c r="BK21" s="15"/>
-      <c r="BL21" s="15"/>
-      <c r="BM21" s="15"/>
-      <c r="BN21" s="15"/>
-      <c r="BO21" s="15"/>
-      <c r="BP21" s="15"/>
-      <c r="BQ21" s="15"/>
-      <c r="BR21" s="15"/>
-      <c r="BS21" s="15"/>
-      <c r="BT21" s="15"/>
-      <c r="BU21" s="15"/>
-      <c r="BV21" s="15"/>
-      <c r="BW21" s="15"/>
-      <c r="BX21" s="15"/>
-      <c r="BY21" s="15"/>
-      <c r="BZ21" s="15"/>
-      <c r="CA21" s="15"/>
-      <c r="CB21" s="15"/>
-      <c r="CC21" s="15"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="1"/>
+      <c r="BD21" s="1"/>
+      <c r="BE21" s="1"/>
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="1"/>
+      <c r="BH21" s="1"/>
+      <c r="BI21" s="1"/>
+      <c r="BJ21" s="1"/>
+      <c r="BK21" s="1"/>
+      <c r="BL21" s="1"/>
+      <c r="BM21" s="1"/>
+      <c r="BN21" s="1"/>
+      <c r="BO21" s="1"/>
+      <c r="BP21" s="1"/>
+      <c r="BQ21" s="1"/>
+      <c r="BR21" s="1"/>
+      <c r="BS21" s="1"/>
+      <c r="BT21" s="1"/>
+      <c r="BU21" s="1"/>
+      <c r="BV21" s="1"/>
+      <c r="BW21" s="1"/>
+      <c r="BX21" s="1"/>
+      <c r="BY21" s="1"/>
+      <c r="BZ21" s="1"/>
+      <c r="CA21" s="1"/>
+      <c r="CB21" s="1"/>
+      <c r="CC21" s="1"/>
     </row>
     <row r="22" spans="1:218" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
@@ -3914,263 +4038,262 @@
       <c r="EX22" s="5"/>
       <c r="EY22" s="5"/>
     </row>
-    <row r="23" spans="1:218" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
+    <row r="23" spans="1:218" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="1">
         <v>410.1</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="1">
         <v>410.8</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="1">
         <v>411.3</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="1">
         <v>413.4</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="1">
         <v>427.7</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="1">
         <v>430.6</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="1">
         <v>431.1</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="1">
         <v>433</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="1">
         <v>434.2</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L23" s="1">
         <v>432.9</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M23" s="1">
         <v>433.2</v>
       </c>
-      <c r="O23" s="18"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15">
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1">
         <v>421.2</v>
       </c>
-      <c r="R23" s="15">
+      <c r="R23" s="1">
         <v>415.2</v>
       </c>
-      <c r="S23" s="15">
+      <c r="S23" s="1">
         <v>421.9</v>
       </c>
-      <c r="T23" s="15">
+      <c r="T23" s="1">
         <v>423.8</v>
       </c>
-      <c r="U23" s="15">
+      <c r="U23" s="1">
         <v>410.9</v>
       </c>
-      <c r="V23" s="15">
+      <c r="V23" s="1">
         <v>410.7</v>
       </c>
-      <c r="W23" s="15">
+      <c r="W23" s="1">
         <v>425.7</v>
       </c>
-      <c r="X23" s="15">
+      <c r="X23" s="1">
         <v>433.2</v>
       </c>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="15"/>
-      <c r="AH23" s="15"/>
-      <c r="AI23" s="15"/>
-      <c r="AJ23" s="15"/>
-      <c r="AK23" s="15"/>
-      <c r="AL23" s="15"/>
-      <c r="AM23" s="15"/>
-      <c r="AN23" s="15"/>
-      <c r="AO23" s="15"/>
-      <c r="AP23" s="15"/>
-      <c r="AQ23" s="15"/>
-      <c r="AR23" s="15"/>
-      <c r="AS23" s="15"/>
-      <c r="AT23" s="15"/>
-      <c r="AU23" s="15"/>
-      <c r="AV23" s="15"/>
-      <c r="AW23" s="15"/>
-      <c r="AX23" s="15"/>
-      <c r="AY23" s="15"/>
-      <c r="AZ23" s="15"/>
-      <c r="BA23" s="15"/>
-      <c r="BB23" s="15"/>
-      <c r="BC23" s="15"/>
-      <c r="BD23" s="15"/>
-      <c r="BE23" s="15"/>
-      <c r="BF23" s="15"/>
-      <c r="BG23" s="15"/>
-      <c r="BH23" s="15"/>
-      <c r="BI23" s="15"/>
-      <c r="BJ23" s="15"/>
-      <c r="BK23" s="15"/>
-      <c r="BL23" s="15"/>
-      <c r="BM23" s="15"/>
-      <c r="BN23" s="15"/>
-      <c r="BO23" s="15"/>
-      <c r="BP23" s="15"/>
-      <c r="BQ23" s="15"/>
-      <c r="BR23" s="15"/>
-      <c r="BS23" s="15"/>
-      <c r="BT23" s="15"/>
-      <c r="BU23" s="15"/>
-      <c r="BV23" s="15"/>
-      <c r="BW23" s="15"/>
-      <c r="BX23" s="15"/>
-      <c r="BY23" s="15"/>
-      <c r="BZ23" s="15"/>
-      <c r="CA23" s="15"/>
-      <c r="CB23" s="15"/>
-      <c r="CC23" s="15"/>
-      <c r="CD23" s="15"/>
-      <c r="CE23" s="15"/>
-      <c r="CF23" s="15"/>
-      <c r="CG23" s="15"/>
-      <c r="CH23" s="15"/>
-      <c r="CI23" s="15"/>
-      <c r="CJ23" s="15"/>
-      <c r="CK23" s="15"/>
-      <c r="CL23" s="15"/>
-      <c r="CM23" s="15"/>
-      <c r="CN23" s="15"/>
-      <c r="CO23" s="15"/>
-      <c r="CP23" s="15"/>
-      <c r="CQ23" s="15"/>
-      <c r="CR23" s="15"/>
-      <c r="CS23" s="15"/>
-      <c r="CT23" s="15"/>
-      <c r="CU23" s="15"/>
-      <c r="CV23" s="15"/>
-      <c r="CW23" s="15"/>
-      <c r="CX23" s="15"/>
-      <c r="CY23" s="15"/>
-      <c r="CZ23" s="15"/>
-      <c r="DA23" s="15"/>
-      <c r="DB23" s="15"/>
-      <c r="DC23" s="15"/>
-      <c r="DD23" s="15"/>
-      <c r="DE23" s="15"/>
-      <c r="DF23" s="15"/>
-      <c r="DG23" s="15"/>
-      <c r="DH23" s="15"/>
-      <c r="DI23" s="15"/>
-      <c r="DJ23" s="15"/>
-      <c r="DK23" s="15"/>
-      <c r="DL23" s="15"/>
-      <c r="DM23" s="15"/>
-      <c r="DN23" s="15"/>
-      <c r="DO23" s="15"/>
-      <c r="DP23" s="15"/>
-      <c r="DQ23" s="15"/>
-      <c r="DR23" s="15"/>
-      <c r="DS23" s="15"/>
-      <c r="DT23" s="15"/>
-      <c r="DU23" s="15"/>
-      <c r="DV23" s="15"/>
-      <c r="DW23" s="15"/>
-      <c r="DX23" s="15"/>
-      <c r="DY23" s="15"/>
-      <c r="DZ23" s="15"/>
-      <c r="EA23" s="15"/>
-      <c r="EB23" s="15"/>
-      <c r="EC23" s="15"/>
-      <c r="ED23" s="15"/>
-      <c r="EE23" s="15"/>
-      <c r="EF23" s="15"/>
-      <c r="EG23" s="15"/>
-      <c r="EH23" s="15"/>
-      <c r="EI23" s="15"/>
-      <c r="EJ23" s="15"/>
-      <c r="EK23" s="15"/>
-      <c r="EL23" s="15"/>
-      <c r="EM23" s="15"/>
-      <c r="EN23" s="15"/>
-      <c r="EO23" s="15"/>
-      <c r="EP23" s="15"/>
-      <c r="EQ23" s="15"/>
-      <c r="ER23" s="15"/>
-      <c r="ES23" s="15"/>
-      <c r="ET23" s="15"/>
-      <c r="EU23" s="15"/>
-      <c r="EV23" s="15"/>
-      <c r="EW23" s="15"/>
-      <c r="EX23" s="15"/>
-      <c r="EY23" s="15"/>
-      <c r="EZ23" s="15"/>
-      <c r="FA23" s="15"/>
-      <c r="FB23" s="15"/>
-      <c r="FC23" s="15"/>
-      <c r="FD23" s="15"/>
-      <c r="FE23" s="15"/>
-      <c r="FF23" s="15"/>
-      <c r="FG23" s="15"/>
-      <c r="FH23" s="15"/>
-      <c r="FI23" s="15"/>
-      <c r="FJ23" s="15"/>
-      <c r="FK23" s="15"/>
-      <c r="FL23" s="15"/>
-      <c r="FM23" s="15"/>
-      <c r="FN23" s="15"/>
-      <c r="FO23" s="15"/>
-      <c r="FP23" s="15"/>
-      <c r="FQ23" s="15"/>
-      <c r="FR23" s="15"/>
-      <c r="FS23" s="15"/>
-      <c r="FT23" s="15"/>
-      <c r="FU23" s="15"/>
-      <c r="FV23" s="15"/>
-      <c r="FW23" s="15"/>
-      <c r="FX23" s="15"/>
-      <c r="FY23" s="15"/>
-      <c r="FZ23" s="15"/>
-      <c r="GA23" s="15"/>
-      <c r="GB23" s="15"/>
-      <c r="GC23" s="15"/>
-      <c r="GD23" s="15"/>
-      <c r="GE23" s="15"/>
-      <c r="GF23" s="15"/>
-      <c r="GG23" s="15"/>
-      <c r="GH23" s="15"/>
-      <c r="GI23" s="15"/>
-      <c r="GJ23" s="15"/>
-      <c r="GK23" s="15"/>
-      <c r="GL23" s="15"/>
-      <c r="GM23" s="15"/>
-      <c r="GN23" s="15"/>
-      <c r="GO23" s="15"/>
-      <c r="GP23" s="15"/>
-      <c r="GQ23" s="15"/>
-      <c r="GR23" s="15"/>
-      <c r="GS23" s="15"/>
-      <c r="GT23" s="15"/>
-      <c r="GU23" s="15"/>
-      <c r="GV23" s="15"/>
-      <c r="GW23" s="15"/>
-      <c r="GX23" s="15"/>
-      <c r="GY23" s="15"/>
-      <c r="GZ23" s="15"/>
-      <c r="HA23" s="15"/>
-      <c r="HB23" s="15"/>
-      <c r="HC23" s="15"/>
-      <c r="HD23" s="15"/>
-      <c r="HE23" s="15"/>
-      <c r="HF23" s="15"/>
-      <c r="HG23" s="15"/>
-      <c r="HH23" s="15"/>
-      <c r="HI23" s="15"/>
-      <c r="HJ23" s="15"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="1"/>
+      <c r="BD23" s="1"/>
+      <c r="BE23" s="1"/>
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="1"/>
+      <c r="BH23" s="1"/>
+      <c r="BI23" s="1"/>
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="1"/>
+      <c r="BL23" s="1"/>
+      <c r="BM23" s="1"/>
+      <c r="BN23" s="1"/>
+      <c r="BO23" s="1"/>
+      <c r="BP23" s="1"/>
+      <c r="BQ23" s="1"/>
+      <c r="BR23" s="1"/>
+      <c r="BS23" s="1"/>
+      <c r="BT23" s="1"/>
+      <c r="BU23" s="1"/>
+      <c r="BV23" s="1"/>
+      <c r="BW23" s="1"/>
+      <c r="BX23" s="1"/>
+      <c r="BY23" s="1"/>
+      <c r="BZ23" s="1"/>
+      <c r="CA23" s="1"/>
+      <c r="CB23" s="1"/>
+      <c r="CC23" s="1"/>
+      <c r="CD23" s="1"/>
+      <c r="CE23" s="1"/>
+      <c r="CF23" s="1"/>
+      <c r="CG23" s="1"/>
+      <c r="CH23" s="1"/>
+      <c r="CI23" s="1"/>
+      <c r="CJ23" s="1"/>
+      <c r="CK23" s="1"/>
+      <c r="CL23" s="1"/>
+      <c r="CM23" s="1"/>
+      <c r="CN23" s="1"/>
+      <c r="CO23" s="1"/>
+      <c r="CP23" s="1"/>
+      <c r="CQ23" s="1"/>
+      <c r="CR23" s="1"/>
+      <c r="CS23" s="1"/>
+      <c r="CT23" s="1"/>
+      <c r="CU23" s="1"/>
+      <c r="CV23" s="1"/>
+      <c r="CW23" s="1"/>
+      <c r="CX23" s="1"/>
+      <c r="CY23" s="1"/>
+      <c r="CZ23" s="1"/>
+      <c r="DA23" s="1"/>
+      <c r="DB23" s="1"/>
+      <c r="DC23" s="1"/>
+      <c r="DD23" s="1"/>
+      <c r="DE23" s="1"/>
+      <c r="DF23" s="1"/>
+      <c r="DG23" s="1"/>
+      <c r="DH23" s="1"/>
+      <c r="DI23" s="1"/>
+      <c r="DJ23" s="1"/>
+      <c r="DK23" s="1"/>
+      <c r="DL23" s="1"/>
+      <c r="DM23" s="1"/>
+      <c r="DN23" s="1"/>
+      <c r="DO23" s="1"/>
+      <c r="DP23" s="1"/>
+      <c r="DQ23" s="1"/>
+      <c r="DR23" s="1"/>
+      <c r="DS23" s="1"/>
+      <c r="DT23" s="1"/>
+      <c r="DU23" s="1"/>
+      <c r="DV23" s="1"/>
+      <c r="DW23" s="1"/>
+      <c r="DX23" s="1"/>
+      <c r="DY23" s="1"/>
+      <c r="DZ23" s="1"/>
+      <c r="EA23" s="1"/>
+      <c r="EB23" s="1"/>
+      <c r="EC23" s="1"/>
+      <c r="ED23" s="1"/>
+      <c r="EE23" s="1"/>
+      <c r="EF23" s="1"/>
+      <c r="EG23" s="1"/>
+      <c r="EH23" s="1"/>
+      <c r="EI23" s="1"/>
+      <c r="EJ23" s="1"/>
+      <c r="EK23" s="1"/>
+      <c r="EL23" s="1"/>
+      <c r="EM23" s="1"/>
+      <c r="EN23" s="1"/>
+      <c r="EO23" s="1"/>
+      <c r="EP23" s="1"/>
+      <c r="EQ23" s="1"/>
+      <c r="ER23" s="1"/>
+      <c r="ES23" s="1"/>
+      <c r="ET23" s="1"/>
+      <c r="EU23" s="1"/>
+      <c r="EV23" s="1"/>
+      <c r="EW23" s="1"/>
+      <c r="EX23" s="1"/>
+      <c r="EY23" s="1"/>
+      <c r="EZ23" s="1"/>
+      <c r="FA23" s="1"/>
+      <c r="FB23" s="1"/>
+      <c r="FC23" s="1"/>
+      <c r="FD23" s="1"/>
+      <c r="FE23" s="1"/>
+      <c r="FF23" s="1"/>
+      <c r="FG23" s="1"/>
+      <c r="FH23" s="1"/>
+      <c r="FI23" s="1"/>
+      <c r="FJ23" s="1"/>
+      <c r="FK23" s="1"/>
+      <c r="FL23" s="1"/>
+      <c r="FM23" s="1"/>
+      <c r="FN23" s="1"/>
+      <c r="FO23" s="1"/>
+      <c r="FP23" s="1"/>
+      <c r="FQ23" s="1"/>
+      <c r="FR23" s="1"/>
+      <c r="FS23" s="1"/>
+      <c r="FT23" s="1"/>
+      <c r="FU23" s="1"/>
+      <c r="FV23" s="1"/>
+      <c r="FW23" s="1"/>
+      <c r="FX23" s="1"/>
+      <c r="FY23" s="1"/>
+      <c r="FZ23" s="1"/>
+      <c r="GA23" s="1"/>
+      <c r="GB23" s="1"/>
+      <c r="GC23" s="1"/>
+      <c r="GD23" s="1"/>
+      <c r="GE23" s="1"/>
+      <c r="GF23" s="1"/>
+      <c r="GG23" s="1"/>
+      <c r="GH23" s="1"/>
+      <c r="GI23" s="1"/>
+      <c r="GJ23" s="1"/>
+      <c r="GK23" s="1"/>
+      <c r="GL23" s="1"/>
+      <c r="GM23" s="1"/>
+      <c r="GN23" s="1"/>
+      <c r="GO23" s="1"/>
+      <c r="GP23" s="1"/>
+      <c r="GQ23" s="1"/>
+      <c r="GR23" s="1"/>
+      <c r="GS23" s="1"/>
+      <c r="GT23" s="1"/>
+      <c r="GU23" s="1"/>
+      <c r="GV23" s="1"/>
+      <c r="GW23" s="1"/>
+      <c r="GX23" s="1"/>
+      <c r="GY23" s="1"/>
+      <c r="GZ23" s="1"/>
+      <c r="HA23" s="1"/>
+      <c r="HB23" s="1"/>
+      <c r="HC23" s="1"/>
+      <c r="HD23" s="1"/>
+      <c r="HE23" s="1"/>
+      <c r="HF23" s="1"/>
+      <c r="HG23" s="1"/>
+      <c r="HH23" s="1"/>
+      <c r="HI23" s="1"/>
+      <c r="HJ23" s="1"/>
     </row>
     <row r="24" spans="1:218" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
@@ -4258,2095 +4381,2018 @@
         <v>4.3947368421052646</v>
       </c>
     </row>
-    <row r="25" spans="1:218" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="15"/>
-      <c r="AG25" s="15"/>
-      <c r="AH25" s="15"/>
-      <c r="AI25" s="15"/>
-      <c r="AJ25" s="15"/>
-      <c r="AK25" s="15"/>
-      <c r="AL25" s="15"/>
-      <c r="AM25" s="15"/>
-      <c r="AN25" s="15"/>
-      <c r="AO25" s="15"/>
-      <c r="AP25" s="15"/>
-      <c r="AQ25" s="15"/>
-      <c r="AR25" s="15"/>
-      <c r="AS25" s="15"/>
-      <c r="AT25" s="15"/>
-      <c r="AU25" s="15"/>
-      <c r="AV25" s="15"/>
-      <c r="AW25" s="15"/>
-      <c r="AX25" s="15"/>
-      <c r="AY25" s="15"/>
-      <c r="AZ25" s="15"/>
-      <c r="BA25" s="15"/>
-      <c r="BB25" s="15"/>
-      <c r="BC25" s="15"/>
-      <c r="BD25" s="15"/>
-      <c r="BE25" s="15"/>
-      <c r="BF25" s="15"/>
-      <c r="BG25" s="15"/>
-      <c r="BH25" s="15"/>
-      <c r="BI25" s="15"/>
-      <c r="BJ25" s="15"/>
-      <c r="BK25" s="15"/>
-      <c r="BL25" s="15"/>
-      <c r="BM25" s="15"/>
-      <c r="BN25" s="15"/>
-      <c r="BO25" s="15"/>
-      <c r="BP25" s="15"/>
-      <c r="BQ25" s="15"/>
-      <c r="BR25" s="15"/>
-      <c r="BS25" s="15"/>
-      <c r="BT25" s="15"/>
-      <c r="BU25" s="15"/>
-      <c r="BV25" s="15"/>
-      <c r="BW25" s="15"/>
-      <c r="BX25" s="15"/>
-      <c r="BY25" s="15"/>
-      <c r="BZ25" s="15"/>
-      <c r="CA25" s="15"/>
-      <c r="CB25" s="15"/>
-      <c r="CC25" s="15"/>
-      <c r="CD25" s="15"/>
-      <c r="CE25" s="15"/>
-      <c r="CF25" s="15"/>
-      <c r="CG25" s="15"/>
-      <c r="CH25" s="15"/>
-      <c r="CI25" s="15"/>
-      <c r="CJ25" s="15"/>
-      <c r="CK25" s="15"/>
-      <c r="CL25" s="15"/>
-      <c r="CM25" s="15"/>
-      <c r="CN25" s="15"/>
-      <c r="CO25" s="15"/>
-      <c r="CP25" s="15"/>
-      <c r="CQ25" s="15"/>
-      <c r="CR25" s="15"/>
-      <c r="CS25" s="15"/>
-      <c r="CT25" s="15"/>
-      <c r="CU25" s="15"/>
-      <c r="CV25" s="15"/>
-      <c r="CW25" s="15"/>
-      <c r="CX25" s="15"/>
-      <c r="CY25" s="15"/>
-      <c r="CZ25" s="15"/>
-      <c r="DA25" s="15"/>
-      <c r="DB25" s="15"/>
-      <c r="DC25" s="15"/>
-      <c r="DD25" s="15"/>
-      <c r="DE25" s="15"/>
-      <c r="DF25" s="15"/>
-      <c r="DG25" s="15"/>
-      <c r="DH25" s="15"/>
-      <c r="DI25" s="15"/>
-      <c r="DJ25" s="15"/>
-      <c r="DK25" s="15"/>
-      <c r="DL25" s="15"/>
-      <c r="DM25" s="15"/>
-      <c r="DN25" s="15"/>
-      <c r="DO25" s="15"/>
-      <c r="DP25" s="15"/>
-      <c r="DQ25" s="15"/>
-      <c r="DR25" s="15"/>
-      <c r="DS25" s="15"/>
-      <c r="DT25" s="15"/>
-      <c r="DU25" s="15"/>
-      <c r="DV25" s="15"/>
-      <c r="DW25" s="15"/>
-      <c r="DX25" s="15"/>
-      <c r="DY25" s="15"/>
-      <c r="DZ25" s="15"/>
-      <c r="EA25" s="15"/>
-      <c r="EB25" s="15"/>
-      <c r="EC25" s="15"/>
-      <c r="ED25" s="15"/>
-      <c r="EE25" s="15"/>
-      <c r="EF25" s="15"/>
-      <c r="EG25" s="15"/>
-      <c r="EH25" s="15"/>
-      <c r="EI25" s="15"/>
-      <c r="EJ25" s="15"/>
-      <c r="EK25" s="15"/>
-      <c r="EL25" s="15"/>
-      <c r="EM25" s="15"/>
-      <c r="EN25" s="15"/>
-      <c r="EO25" s="15"/>
-      <c r="EP25" s="15"/>
-      <c r="EQ25" s="15"/>
-      <c r="ER25" s="15"/>
-      <c r="ES25" s="15"/>
-      <c r="ET25" s="15"/>
-      <c r="EU25" s="15"/>
-      <c r="EV25" s="15"/>
-      <c r="EW25" s="15"/>
-      <c r="EX25" s="15"/>
-      <c r="EY25" s="15"/>
-      <c r="EZ25" s="15"/>
-      <c r="FA25" s="15"/>
-      <c r="FB25" s="15"/>
-      <c r="FC25" s="15"/>
-      <c r="FD25" s="15"/>
-      <c r="FE25" s="15"/>
-      <c r="FF25" s="15"/>
-      <c r="FG25" s="15"/>
-      <c r="FH25" s="15"/>
-      <c r="FI25" s="15"/>
-      <c r="FJ25" s="15"/>
-      <c r="FK25" s="15"/>
-      <c r="FL25" s="15"/>
-      <c r="FM25" s="15"/>
-      <c r="FN25" s="15"/>
-      <c r="FO25" s="15"/>
-      <c r="FP25" s="15"/>
-      <c r="FQ25" s="15"/>
-      <c r="FR25" s="15"/>
-      <c r="FS25" s="15"/>
-      <c r="FT25" s="15"/>
-      <c r="FU25" s="15"/>
-      <c r="FV25" s="15"/>
-      <c r="FW25" s="15"/>
-      <c r="FX25" s="15"/>
-      <c r="FY25" s="15"/>
-      <c r="FZ25" s="15"/>
-      <c r="GA25" s="15"/>
-      <c r="GB25" s="15"/>
-      <c r="GC25" s="15"/>
-      <c r="GD25" s="15"/>
-      <c r="GE25" s="15"/>
-      <c r="GF25" s="15"/>
-      <c r="GG25" s="15"/>
-      <c r="GH25" s="15"/>
-      <c r="GI25" s="15"/>
-      <c r="GJ25" s="15"/>
-      <c r="GK25" s="15"/>
-      <c r="GL25" s="15"/>
-      <c r="GM25" s="15"/>
-      <c r="GN25" s="15"/>
-      <c r="GO25" s="15"/>
-      <c r="GP25" s="15"/>
-      <c r="GQ25" s="15"/>
-      <c r="GR25" s="15"/>
-      <c r="GS25" s="15"/>
-      <c r="GT25" s="15"/>
-      <c r="GU25" s="15"/>
-      <c r="GV25" s="15"/>
-      <c r="GW25" s="15"/>
-      <c r="GX25" s="15"/>
-      <c r="GY25" s="15"/>
-      <c r="GZ25" s="15"/>
-      <c r="HA25" s="15"/>
-      <c r="HB25" s="15"/>
-      <c r="HC25" s="15"/>
-      <c r="HD25" s="15"/>
-      <c r="HE25" s="15"/>
-      <c r="HF25" s="15"/>
-      <c r="HG25" s="15"/>
-      <c r="HH25" s="15"/>
-      <c r="HI25" s="15"/>
-      <c r="HJ25" s="15"/>
+    <row r="25" spans="1:218" x14ac:dyDescent="0.25">
+      <c r="M25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="1"/>
+      <c r="BD25" s="1"/>
+      <c r="BE25" s="1"/>
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="1"/>
+      <c r="BH25" s="1"/>
+      <c r="BI25" s="1"/>
+      <c r="BJ25" s="1"/>
+      <c r="BK25" s="1"/>
+      <c r="BL25" s="1"/>
+      <c r="BM25" s="1"/>
+      <c r="BN25" s="1"/>
+      <c r="BO25" s="1"/>
+      <c r="BP25" s="1"/>
+      <c r="BQ25" s="1"/>
+      <c r="BR25" s="1"/>
+      <c r="BS25" s="1"/>
+      <c r="BT25" s="1"/>
+      <c r="BU25" s="1"/>
+      <c r="BV25" s="1"/>
+      <c r="BW25" s="1"/>
+      <c r="BX25" s="1"/>
+      <c r="BY25" s="1"/>
+      <c r="BZ25" s="1"/>
+      <c r="CA25" s="1"/>
+      <c r="CB25" s="1"/>
+      <c r="CC25" s="1"/>
+      <c r="CD25" s="1"/>
+      <c r="CE25" s="1"/>
+      <c r="CF25" s="1"/>
+      <c r="CG25" s="1"/>
+      <c r="CH25" s="1"/>
+      <c r="CI25" s="1"/>
+      <c r="CJ25" s="1"/>
+      <c r="CK25" s="1"/>
+      <c r="CL25" s="1"/>
+      <c r="CM25" s="1"/>
+      <c r="CN25" s="1"/>
+      <c r="CO25" s="1"/>
+      <c r="CP25" s="1"/>
+      <c r="CQ25" s="1"/>
+      <c r="CR25" s="1"/>
+      <c r="CS25" s="1"/>
+      <c r="CT25" s="1"/>
+      <c r="CU25" s="1"/>
+      <c r="CV25" s="1"/>
+      <c r="CW25" s="1"/>
+      <c r="CX25" s="1"/>
+      <c r="CY25" s="1"/>
+      <c r="CZ25" s="1"/>
+      <c r="DA25" s="1"/>
+      <c r="DB25" s="1"/>
+      <c r="DC25" s="1"/>
+      <c r="DD25" s="1"/>
+      <c r="DE25" s="1"/>
+      <c r="DF25" s="1"/>
+      <c r="DG25" s="1"/>
+      <c r="DH25" s="1"/>
+      <c r="DI25" s="1"/>
+      <c r="DJ25" s="1"/>
+      <c r="DK25" s="1"/>
+      <c r="DL25" s="1"/>
+      <c r="DM25" s="1"/>
+      <c r="DN25" s="1"/>
+      <c r="DO25" s="1"/>
+      <c r="DP25" s="1"/>
+      <c r="DQ25" s="1"/>
+      <c r="DR25" s="1"/>
+      <c r="DS25" s="1"/>
+      <c r="DT25" s="1"/>
+      <c r="DU25" s="1"/>
+      <c r="DV25" s="1"/>
+      <c r="DW25" s="1"/>
+      <c r="DX25" s="1"/>
+      <c r="DY25" s="1"/>
+      <c r="DZ25" s="1"/>
+      <c r="EA25" s="1"/>
+      <c r="EB25" s="1"/>
+      <c r="EC25" s="1"/>
+      <c r="ED25" s="1"/>
+      <c r="EE25" s="1"/>
+      <c r="EF25" s="1"/>
+      <c r="EG25" s="1"/>
+      <c r="EH25" s="1"/>
+      <c r="EI25" s="1"/>
+      <c r="EJ25" s="1"/>
+      <c r="EK25" s="1"/>
+      <c r="EL25" s="1"/>
+      <c r="EM25" s="1"/>
+      <c r="EN25" s="1"/>
+      <c r="EO25" s="1"/>
+      <c r="EP25" s="1"/>
+      <c r="EQ25" s="1"/>
+      <c r="ER25" s="1"/>
+      <c r="ES25" s="1"/>
+      <c r="ET25" s="1"/>
+      <c r="EU25" s="1"/>
+      <c r="EV25" s="1"/>
+      <c r="EW25" s="1"/>
+      <c r="EX25" s="1"/>
+      <c r="EY25" s="1"/>
+      <c r="EZ25" s="1"/>
+      <c r="FA25" s="1"/>
+      <c r="FB25" s="1"/>
+      <c r="FC25" s="1"/>
+      <c r="FD25" s="1"/>
+      <c r="FE25" s="1"/>
+      <c r="FF25" s="1"/>
+      <c r="FG25" s="1"/>
+      <c r="FH25" s="1"/>
+      <c r="FI25" s="1"/>
+      <c r="FJ25" s="1"/>
+      <c r="FK25" s="1"/>
+      <c r="FL25" s="1"/>
+      <c r="FM25" s="1"/>
+      <c r="FN25" s="1"/>
+      <c r="FO25" s="1"/>
+      <c r="FP25" s="1"/>
+      <c r="FQ25" s="1"/>
+      <c r="FR25" s="1"/>
+      <c r="FS25" s="1"/>
+      <c r="FT25" s="1"/>
+      <c r="FU25" s="1"/>
+      <c r="FV25" s="1"/>
+      <c r="FW25" s="1"/>
+      <c r="FX25" s="1"/>
+      <c r="FY25" s="1"/>
+      <c r="FZ25" s="1"/>
+      <c r="GA25" s="1"/>
+      <c r="GB25" s="1"/>
+      <c r="GC25" s="1"/>
+      <c r="GD25" s="1"/>
+      <c r="GE25" s="1"/>
+      <c r="GF25" s="1"/>
+      <c r="GG25" s="1"/>
+      <c r="GH25" s="1"/>
+      <c r="GI25" s="1"/>
+      <c r="GJ25" s="1"/>
+      <c r="GK25" s="1"/>
+      <c r="GL25" s="1"/>
+      <c r="GM25" s="1"/>
+      <c r="GN25" s="1"/>
+      <c r="GO25" s="1"/>
+      <c r="GP25" s="1"/>
+      <c r="GQ25" s="1"/>
+      <c r="GR25" s="1"/>
+      <c r="GS25" s="1"/>
+      <c r="GT25" s="1"/>
+      <c r="GU25" s="1"/>
+      <c r="GV25" s="1"/>
+      <c r="GW25" s="1"/>
+      <c r="GX25" s="1"/>
+      <c r="GY25" s="1"/>
+      <c r="GZ25" s="1"/>
+      <c r="HA25" s="1"/>
+      <c r="HB25" s="1"/>
+      <c r="HC25" s="1"/>
+      <c r="HD25" s="1"/>
+      <c r="HE25" s="1"/>
+      <c r="HF25" s="1"/>
+      <c r="HG25" s="1"/>
+      <c r="HH25" s="1"/>
+      <c r="HI25" s="1"/>
+      <c r="HJ25" s="1"/>
     </row>
-    <row r="26" spans="1:218" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="17" t="s">
+    <row r="26" spans="1:218" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15">
+      <c r="M26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1">
         <f>357.6+2.8</f>
         <v>360.40000000000003</v>
       </c>
-      <c r="R26" s="15">
+      <c r="R26" s="1">
         <f>364.1+12</f>
         <v>376.1</v>
       </c>
-      <c r="S26" s="15">
+      <c r="S26" s="1">
         <f>481.9+16</f>
         <v>497.9</v>
       </c>
-      <c r="T26" s="15">
+      <c r="T26" s="1">
         <f>508.7+13.2</f>
         <v>521.9</v>
       </c>
-      <c r="U26" s="15">
+      <c r="U26" s="1">
         <f>593.1+13</f>
         <v>606.1</v>
       </c>
-      <c r="V26" s="15">
+      <c r="V26" s="1">
         <f>625.1+12.1</f>
         <v>637.20000000000005</v>
       </c>
-      <c r="W26" s="15">
+      <c r="W26" s="1">
         <f>596.7+10.7</f>
         <v>607.40000000000009</v>
       </c>
-      <c r="X26" s="15">
+      <c r="X26" s="1">
         <f>551.8+11</f>
         <v>562.79999999999995</v>
       </c>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="15"/>
-      <c r="AI26" s="15"/>
-      <c r="AJ26" s="15"/>
-      <c r="AK26" s="15"/>
-      <c r="AL26" s="15"/>
-      <c r="AM26" s="15"/>
-      <c r="AN26" s="15"/>
-      <c r="AO26" s="15"/>
-      <c r="AP26" s="15"/>
-      <c r="AQ26" s="15"/>
-      <c r="AR26" s="15"/>
-      <c r="AS26" s="15"/>
-      <c r="AT26" s="15"/>
-      <c r="AU26" s="15"/>
-      <c r="AV26" s="15"/>
-      <c r="AW26" s="15"/>
-      <c r="AX26" s="15"/>
-      <c r="AY26" s="15"/>
-      <c r="AZ26" s="15"/>
-      <c r="BA26" s="15"/>
-      <c r="BB26" s="15"/>
-      <c r="BC26" s="15"/>
-      <c r="BD26" s="15"/>
-      <c r="BE26" s="15"/>
-      <c r="BF26" s="15"/>
-      <c r="BG26" s="15"/>
-      <c r="BH26" s="15"/>
-      <c r="BI26" s="15"/>
-      <c r="BJ26" s="15"/>
-      <c r="BK26" s="15"/>
-      <c r="BL26" s="15"/>
-      <c r="BM26" s="15"/>
-      <c r="BN26" s="15"/>
-      <c r="BO26" s="15"/>
-      <c r="BP26" s="15"/>
-      <c r="BQ26" s="15"/>
-      <c r="BR26" s="15"/>
-      <c r="BS26" s="15"/>
-      <c r="BT26" s="15"/>
-      <c r="BU26" s="15"/>
-      <c r="BV26" s="15"/>
-      <c r="BW26" s="15"/>
-      <c r="BX26" s="15"/>
-      <c r="BY26" s="15"/>
-      <c r="BZ26" s="15"/>
-      <c r="CA26" s="15"/>
-      <c r="CB26" s="15"/>
-      <c r="CC26" s="15"/>
-      <c r="CD26" s="15"/>
-      <c r="CE26" s="15"/>
-      <c r="CF26" s="15"/>
-      <c r="CG26" s="15"/>
-      <c r="CH26" s="15"/>
-      <c r="CI26" s="15"/>
-      <c r="CJ26" s="15"/>
-      <c r="CK26" s="15"/>
-      <c r="CL26" s="15"/>
-      <c r="CM26" s="15"/>
-      <c r="CN26" s="15"/>
-      <c r="CO26" s="15"/>
-      <c r="CP26" s="15"/>
-      <c r="CQ26" s="15"/>
-      <c r="CR26" s="15"/>
-      <c r="CS26" s="15"/>
-      <c r="CT26" s="15"/>
-      <c r="CU26" s="15"/>
-      <c r="CV26" s="15"/>
-      <c r="CW26" s="15"/>
-      <c r="CX26" s="15"/>
-      <c r="CY26" s="15"/>
-      <c r="CZ26" s="15"/>
-      <c r="DA26" s="15"/>
-      <c r="DB26" s="15"/>
-      <c r="DC26" s="15"/>
-      <c r="DD26" s="15"/>
-      <c r="DE26" s="15"/>
-      <c r="DF26" s="15"/>
-      <c r="DG26" s="15"/>
-      <c r="DH26" s="15"/>
-      <c r="DI26" s="15"/>
-      <c r="DJ26" s="15"/>
-      <c r="DK26" s="15"/>
-      <c r="DL26" s="15"/>
-      <c r="DM26" s="15"/>
-      <c r="DN26" s="15"/>
-      <c r="DO26" s="15"/>
-      <c r="DP26" s="15"/>
-      <c r="DQ26" s="15"/>
-      <c r="DR26" s="15"/>
-      <c r="DS26" s="15"/>
-      <c r="DT26" s="15"/>
-      <c r="DU26" s="15"/>
-      <c r="DV26" s="15"/>
-      <c r="DW26" s="15"/>
-      <c r="DX26" s="15"/>
-      <c r="DY26" s="15"/>
-      <c r="DZ26" s="15"/>
-      <c r="EA26" s="15"/>
-      <c r="EB26" s="15"/>
-      <c r="EC26" s="15"/>
-      <c r="ED26" s="15"/>
-      <c r="EE26" s="15"/>
-      <c r="EF26" s="15"/>
-      <c r="EG26" s="15"/>
-      <c r="EH26" s="15"/>
-      <c r="EI26" s="15"/>
-      <c r="EJ26" s="15"/>
-      <c r="EK26" s="15"/>
-      <c r="EL26" s="15"/>
-      <c r="EM26" s="15"/>
-      <c r="EN26" s="15"/>
-      <c r="EO26" s="15"/>
-      <c r="EP26" s="15"/>
-      <c r="EQ26" s="15"/>
-      <c r="ER26" s="15"/>
-      <c r="ES26" s="15"/>
-      <c r="ET26" s="15"/>
-      <c r="EU26" s="15"/>
-      <c r="EV26" s="15"/>
-      <c r="EW26" s="15"/>
-      <c r="EX26" s="15"/>
-      <c r="EY26" s="15"/>
-      <c r="EZ26" s="15"/>
-      <c r="FA26" s="15"/>
-      <c r="FB26" s="15"/>
-      <c r="FC26" s="15"/>
-      <c r="FD26" s="15"/>
-      <c r="FE26" s="15"/>
-      <c r="FF26" s="15"/>
-      <c r="FG26" s="15"/>
-      <c r="FH26" s="15"/>
-      <c r="FI26" s="15"/>
-      <c r="FJ26" s="15"/>
-      <c r="FK26" s="15"/>
-      <c r="FL26" s="15"/>
-      <c r="FM26" s="15"/>
-      <c r="FN26" s="15"/>
-      <c r="FO26" s="15"/>
-      <c r="FP26" s="15"/>
-      <c r="FQ26" s="15"/>
-      <c r="FR26" s="15"/>
-      <c r="FS26" s="15"/>
-      <c r="FT26" s="15"/>
-      <c r="FU26" s="15"/>
-      <c r="FV26" s="15"/>
-      <c r="FW26" s="15"/>
-      <c r="FX26" s="15"/>
-      <c r="FY26" s="15"/>
-      <c r="FZ26" s="15"/>
-      <c r="GA26" s="15"/>
-      <c r="GB26" s="15"/>
-      <c r="GC26" s="15"/>
-      <c r="GD26" s="15"/>
-      <c r="GE26" s="15"/>
-      <c r="GF26" s="15"/>
-      <c r="GG26" s="15"/>
-      <c r="GH26" s="15"/>
-      <c r="GI26" s="15"/>
-      <c r="GJ26" s="15"/>
-      <c r="GK26" s="15"/>
-      <c r="GL26" s="15"/>
-      <c r="GM26" s="15"/>
-      <c r="GN26" s="15"/>
-      <c r="GO26" s="15"/>
-      <c r="GP26" s="15"/>
-      <c r="GQ26" s="15"/>
-      <c r="GR26" s="15"/>
-      <c r="GS26" s="15"/>
-      <c r="GT26" s="15"/>
-      <c r="GU26" s="15"/>
-      <c r="GV26" s="15"/>
-      <c r="GW26" s="15"/>
-      <c r="GX26" s="15"/>
-      <c r="GY26" s="15"/>
-      <c r="GZ26" s="15"/>
-      <c r="HA26" s="15"/>
-      <c r="HB26" s="15"/>
-      <c r="HC26" s="15"/>
-      <c r="HD26" s="15"/>
-      <c r="HE26" s="15"/>
-      <c r="HF26" s="15"/>
-      <c r="HG26" s="15"/>
-      <c r="HH26" s="15"/>
-      <c r="HI26" s="15"/>
-      <c r="HJ26" s="15"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+      <c r="BD26" s="1"/>
+      <c r="BE26" s="1"/>
+      <c r="BF26" s="1"/>
+      <c r="BG26" s="1"/>
+      <c r="BH26" s="1"/>
+      <c r="BI26" s="1"/>
+      <c r="BJ26" s="1"/>
+      <c r="BK26" s="1"/>
+      <c r="BL26" s="1"/>
+      <c r="BM26" s="1"/>
+      <c r="BN26" s="1"/>
+      <c r="BO26" s="1"/>
+      <c r="BP26" s="1"/>
+      <c r="BQ26" s="1"/>
+      <c r="BR26" s="1"/>
+      <c r="BS26" s="1"/>
+      <c r="BT26" s="1"/>
+      <c r="BU26" s="1"/>
+      <c r="BV26" s="1"/>
+      <c r="BW26" s="1"/>
+      <c r="BX26" s="1"/>
+      <c r="BY26" s="1"/>
+      <c r="BZ26" s="1"/>
+      <c r="CA26" s="1"/>
+      <c r="CB26" s="1"/>
+      <c r="CC26" s="1"/>
+      <c r="CD26" s="1"/>
+      <c r="CE26" s="1"/>
+      <c r="CF26" s="1"/>
+      <c r="CG26" s="1"/>
+      <c r="CH26" s="1"/>
+      <c r="CI26" s="1"/>
+      <c r="CJ26" s="1"/>
+      <c r="CK26" s="1"/>
+      <c r="CL26" s="1"/>
+      <c r="CM26" s="1"/>
+      <c r="CN26" s="1"/>
+      <c r="CO26" s="1"/>
+      <c r="CP26" s="1"/>
+      <c r="CQ26" s="1"/>
+      <c r="CR26" s="1"/>
+      <c r="CS26" s="1"/>
+      <c r="CT26" s="1"/>
+      <c r="CU26" s="1"/>
+      <c r="CV26" s="1"/>
+      <c r="CW26" s="1"/>
+      <c r="CX26" s="1"/>
+      <c r="CY26" s="1"/>
+      <c r="CZ26" s="1"/>
+      <c r="DA26" s="1"/>
+      <c r="DB26" s="1"/>
+      <c r="DC26" s="1"/>
+      <c r="DD26" s="1"/>
+      <c r="DE26" s="1"/>
+      <c r="DF26" s="1"/>
+      <c r="DG26" s="1"/>
+      <c r="DH26" s="1"/>
+      <c r="DI26" s="1"/>
+      <c r="DJ26" s="1"/>
+      <c r="DK26" s="1"/>
+      <c r="DL26" s="1"/>
+      <c r="DM26" s="1"/>
+      <c r="DN26" s="1"/>
+      <c r="DO26" s="1"/>
+      <c r="DP26" s="1"/>
+      <c r="DQ26" s="1"/>
+      <c r="DR26" s="1"/>
+      <c r="DS26" s="1"/>
+      <c r="DT26" s="1"/>
+      <c r="DU26" s="1"/>
+      <c r="DV26" s="1"/>
+      <c r="DW26" s="1"/>
+      <c r="DX26" s="1"/>
+      <c r="DY26" s="1"/>
+      <c r="DZ26" s="1"/>
+      <c r="EA26" s="1"/>
+      <c r="EB26" s="1"/>
+      <c r="EC26" s="1"/>
+      <c r="ED26" s="1"/>
+      <c r="EE26" s="1"/>
+      <c r="EF26" s="1"/>
+      <c r="EG26" s="1"/>
+      <c r="EH26" s="1"/>
+      <c r="EI26" s="1"/>
+      <c r="EJ26" s="1"/>
+      <c r="EK26" s="1"/>
+      <c r="EL26" s="1"/>
+      <c r="EM26" s="1"/>
+      <c r="EN26" s="1"/>
+      <c r="EO26" s="1"/>
+      <c r="EP26" s="1"/>
+      <c r="EQ26" s="1"/>
+      <c r="ER26" s="1"/>
+      <c r="ES26" s="1"/>
+      <c r="ET26" s="1"/>
+      <c r="EU26" s="1"/>
+      <c r="EV26" s="1"/>
+      <c r="EW26" s="1"/>
+      <c r="EX26" s="1"/>
+      <c r="EY26" s="1"/>
+      <c r="EZ26" s="1"/>
+      <c r="FA26" s="1"/>
+      <c r="FB26" s="1"/>
+      <c r="FC26" s="1"/>
+      <c r="FD26" s="1"/>
+      <c r="FE26" s="1"/>
+      <c r="FF26" s="1"/>
+      <c r="FG26" s="1"/>
+      <c r="FH26" s="1"/>
+      <c r="FI26" s="1"/>
+      <c r="FJ26" s="1"/>
+      <c r="FK26" s="1"/>
+      <c r="FL26" s="1"/>
+      <c r="FM26" s="1"/>
+      <c r="FN26" s="1"/>
+      <c r="FO26" s="1"/>
+      <c r="FP26" s="1"/>
+      <c r="FQ26" s="1"/>
+      <c r="FR26" s="1"/>
+      <c r="FS26" s="1"/>
+      <c r="FT26" s="1"/>
+      <c r="FU26" s="1"/>
+      <c r="FV26" s="1"/>
+      <c r="FW26" s="1"/>
+      <c r="FX26" s="1"/>
+      <c r="FY26" s="1"/>
+      <c r="FZ26" s="1"/>
+      <c r="GA26" s="1"/>
+      <c r="GB26" s="1"/>
+      <c r="GC26" s="1"/>
+      <c r="GD26" s="1"/>
+      <c r="GE26" s="1"/>
+      <c r="GF26" s="1"/>
+      <c r="GG26" s="1"/>
+      <c r="GH26" s="1"/>
+      <c r="GI26" s="1"/>
+      <c r="GJ26" s="1"/>
+      <c r="GK26" s="1"/>
+      <c r="GL26" s="1"/>
+      <c r="GM26" s="1"/>
+      <c r="GN26" s="1"/>
+      <c r="GO26" s="1"/>
+      <c r="GP26" s="1"/>
+      <c r="GQ26" s="1"/>
+      <c r="GR26" s="1"/>
+      <c r="GS26" s="1"/>
+      <c r="GT26" s="1"/>
+      <c r="GU26" s="1"/>
+      <c r="GV26" s="1"/>
+      <c r="GW26" s="1"/>
+      <c r="GX26" s="1"/>
+      <c r="GY26" s="1"/>
+      <c r="GZ26" s="1"/>
+      <c r="HA26" s="1"/>
+      <c r="HB26" s="1"/>
+      <c r="HC26" s="1"/>
+      <c r="HD26" s="1"/>
+      <c r="HE26" s="1"/>
+      <c r="HF26" s="1"/>
+      <c r="HG26" s="1"/>
+      <c r="HH26" s="1"/>
+      <c r="HI26" s="1"/>
+      <c r="HJ26" s="1"/>
     </row>
-    <row r="27" spans="1:218" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
+    <row r="27" spans="1:218" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15">
+      <c r="M27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1">
         <v>270.8</v>
       </c>
-      <c r="R27" s="15">
+      <c r="R27" s="1">
         <v>210.7</v>
       </c>
-      <c r="S27" s="15">
+      <c r="S27" s="1">
         <v>387.5</v>
       </c>
-      <c r="T27" s="15">
+      <c r="T27" s="1">
         <v>514.79999999999995</v>
       </c>
-      <c r="U27" s="15">
+      <c r="U27" s="1">
         <v>534.6</v>
       </c>
-      <c r="V27" s="15">
+      <c r="V27" s="1">
         <v>383.6</v>
       </c>
-      <c r="W27" s="15">
+      <c r="W27" s="1">
         <v>444.6</v>
       </c>
-      <c r="X27" s="15">
+      <c r="X27" s="1">
         <v>1005</v>
       </c>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
-      <c r="AF27" s="15"/>
-      <c r="AG27" s="15"/>
-      <c r="AH27" s="15"/>
-      <c r="AI27" s="15"/>
-      <c r="AJ27" s="15"/>
-      <c r="AK27" s="15"/>
-      <c r="AL27" s="15"/>
-      <c r="AM27" s="15"/>
-      <c r="AN27" s="15"/>
-      <c r="AO27" s="15"/>
-      <c r="AP27" s="15"/>
-      <c r="AQ27" s="15"/>
-      <c r="AR27" s="15"/>
-      <c r="AS27" s="15"/>
-      <c r="AT27" s="15"/>
-      <c r="AU27" s="15"/>
-      <c r="AV27" s="15"/>
-      <c r="AW27" s="15"/>
-      <c r="AX27" s="15"/>
-      <c r="AY27" s="15"/>
-      <c r="AZ27" s="15"/>
-      <c r="BA27" s="15"/>
-      <c r="BB27" s="15"/>
-      <c r="BC27" s="15"/>
-      <c r="BD27" s="15"/>
-      <c r="BE27" s="15"/>
-      <c r="BF27" s="15"/>
-      <c r="BG27" s="15"/>
-      <c r="BH27" s="15"/>
-      <c r="BI27" s="15"/>
-      <c r="BJ27" s="15"/>
-      <c r="BK27" s="15"/>
-      <c r="BL27" s="15"/>
-      <c r="BM27" s="15"/>
-      <c r="BN27" s="15"/>
-      <c r="BO27" s="15"/>
-      <c r="BP27" s="15"/>
-      <c r="BQ27" s="15"/>
-      <c r="BR27" s="15"/>
-      <c r="BS27" s="15"/>
-      <c r="BT27" s="15"/>
-      <c r="BU27" s="15"/>
-      <c r="BV27" s="15"/>
-      <c r="BW27" s="15"/>
-      <c r="BX27" s="15"/>
-      <c r="BY27" s="15"/>
-      <c r="BZ27" s="15"/>
-      <c r="CA27" s="15"/>
-      <c r="CB27" s="15"/>
-      <c r="CC27" s="15"/>
-      <c r="CD27" s="15"/>
-      <c r="CE27" s="15"/>
-      <c r="CF27" s="15"/>
-      <c r="CG27" s="15"/>
-      <c r="CH27" s="15"/>
-      <c r="CI27" s="15"/>
-      <c r="CJ27" s="15"/>
-      <c r="CK27" s="15"/>
-      <c r="CL27" s="15"/>
-      <c r="CM27" s="15"/>
-      <c r="CN27" s="15"/>
-      <c r="CO27" s="15"/>
-      <c r="CP27" s="15"/>
-      <c r="CQ27" s="15"/>
-      <c r="CR27" s="15"/>
-      <c r="CS27" s="15"/>
-      <c r="CT27" s="15"/>
-      <c r="CU27" s="15"/>
-      <c r="CV27" s="15"/>
-      <c r="CW27" s="15"/>
-      <c r="CX27" s="15"/>
-      <c r="CY27" s="15"/>
-      <c r="CZ27" s="15"/>
-      <c r="DA27" s="15"/>
-      <c r="DB27" s="15"/>
-      <c r="DC27" s="15"/>
-      <c r="DD27" s="15"/>
-      <c r="DE27" s="15"/>
-      <c r="DF27" s="15"/>
-      <c r="DG27" s="15"/>
-      <c r="DH27" s="15"/>
-      <c r="DI27" s="15"/>
-      <c r="DJ27" s="15"/>
-      <c r="DK27" s="15"/>
-      <c r="DL27" s="15"/>
-      <c r="DM27" s="15"/>
-      <c r="DN27" s="15"/>
-      <c r="DO27" s="15"/>
-      <c r="DP27" s="15"/>
-      <c r="DQ27" s="15"/>
-      <c r="DR27" s="15"/>
-      <c r="DS27" s="15"/>
-      <c r="DT27" s="15"/>
-      <c r="DU27" s="15"/>
-      <c r="DV27" s="15"/>
-      <c r="DW27" s="15"/>
-      <c r="DX27" s="15"/>
-      <c r="DY27" s="15"/>
-      <c r="DZ27" s="15"/>
-      <c r="EA27" s="15"/>
-      <c r="EB27" s="15"/>
-      <c r="EC27" s="15"/>
-      <c r="ED27" s="15"/>
-      <c r="EE27" s="15"/>
-      <c r="EF27" s="15"/>
-      <c r="EG27" s="15"/>
-      <c r="EH27" s="15"/>
-      <c r="EI27" s="15"/>
-      <c r="EJ27" s="15"/>
-      <c r="EK27" s="15"/>
-      <c r="EL27" s="15"/>
-      <c r="EM27" s="15"/>
-      <c r="EN27" s="15"/>
-      <c r="EO27" s="15"/>
-      <c r="EP27" s="15"/>
-      <c r="EQ27" s="15"/>
-      <c r="ER27" s="15"/>
-      <c r="ES27" s="15"/>
-      <c r="ET27" s="15"/>
-      <c r="EU27" s="15"/>
-      <c r="EV27" s="15"/>
-      <c r="EW27" s="15"/>
-      <c r="EX27" s="15"/>
-      <c r="EY27" s="15"/>
-      <c r="EZ27" s="15"/>
-      <c r="FA27" s="15"/>
-      <c r="FB27" s="15"/>
-      <c r="FC27" s="15"/>
-      <c r="FD27" s="15"/>
-      <c r="FE27" s="15"/>
-      <c r="FF27" s="15"/>
-      <c r="FG27" s="15"/>
-      <c r="FH27" s="15"/>
-      <c r="FI27" s="15"/>
-      <c r="FJ27" s="15"/>
-      <c r="FK27" s="15"/>
-      <c r="FL27" s="15"/>
-      <c r="FM27" s="15"/>
-      <c r="FN27" s="15"/>
-      <c r="FO27" s="15"/>
-      <c r="FP27" s="15"/>
-      <c r="FQ27" s="15"/>
-      <c r="FR27" s="15"/>
-      <c r="FS27" s="15"/>
-      <c r="FT27" s="15"/>
-      <c r="FU27" s="15"/>
-      <c r="FV27" s="15"/>
-      <c r="FW27" s="15"/>
-      <c r="FX27" s="15"/>
-      <c r="FY27" s="15"/>
-      <c r="FZ27" s="15"/>
-      <c r="GA27" s="15"/>
-      <c r="GB27" s="15"/>
-      <c r="GC27" s="15"/>
-      <c r="GD27" s="15"/>
-      <c r="GE27" s="15"/>
-      <c r="GF27" s="15"/>
-      <c r="GG27" s="15"/>
-      <c r="GH27" s="15"/>
-      <c r="GI27" s="15"/>
-      <c r="GJ27" s="15"/>
-      <c r="GK27" s="15"/>
-      <c r="GL27" s="15"/>
-      <c r="GM27" s="15"/>
-      <c r="GN27" s="15"/>
-      <c r="GO27" s="15"/>
-      <c r="GP27" s="15"/>
-      <c r="GQ27" s="15"/>
-      <c r="GR27" s="15"/>
-      <c r="GS27" s="15"/>
-      <c r="GT27" s="15"/>
-      <c r="GU27" s="15"/>
-      <c r="GV27" s="15"/>
-      <c r="GW27" s="15"/>
-      <c r="GX27" s="15"/>
-      <c r="GY27" s="15"/>
-      <c r="GZ27" s="15"/>
-      <c r="HA27" s="15"/>
-      <c r="HB27" s="15"/>
-      <c r="HC27" s="15"/>
-      <c r="HD27" s="15"/>
-      <c r="HE27" s="15"/>
-      <c r="HF27" s="15"/>
-      <c r="HG27" s="15"/>
-      <c r="HH27" s="15"/>
-      <c r="HI27" s="15"/>
-      <c r="HJ27" s="15"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1"/>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="1"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="1"/>
+      <c r="BD27" s="1"/>
+      <c r="BE27" s="1"/>
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="1"/>
+      <c r="BH27" s="1"/>
+      <c r="BI27" s="1"/>
+      <c r="BJ27" s="1"/>
+      <c r="BK27" s="1"/>
+      <c r="BL27" s="1"/>
+      <c r="BM27" s="1"/>
+      <c r="BN27" s="1"/>
+      <c r="BO27" s="1"/>
+      <c r="BP27" s="1"/>
+      <c r="BQ27" s="1"/>
+      <c r="BR27" s="1"/>
+      <c r="BS27" s="1"/>
+      <c r="BT27" s="1"/>
+      <c r="BU27" s="1"/>
+      <c r="BV27" s="1"/>
+      <c r="BW27" s="1"/>
+      <c r="BX27" s="1"/>
+      <c r="BY27" s="1"/>
+      <c r="BZ27" s="1"/>
+      <c r="CA27" s="1"/>
+      <c r="CB27" s="1"/>
+      <c r="CC27" s="1"/>
+      <c r="CD27" s="1"/>
+      <c r="CE27" s="1"/>
+      <c r="CF27" s="1"/>
+      <c r="CG27" s="1"/>
+      <c r="CH27" s="1"/>
+      <c r="CI27" s="1"/>
+      <c r="CJ27" s="1"/>
+      <c r="CK27" s="1"/>
+      <c r="CL27" s="1"/>
+      <c r="CM27" s="1"/>
+      <c r="CN27" s="1"/>
+      <c r="CO27" s="1"/>
+      <c r="CP27" s="1"/>
+      <c r="CQ27" s="1"/>
+      <c r="CR27" s="1"/>
+      <c r="CS27" s="1"/>
+      <c r="CT27" s="1"/>
+      <c r="CU27" s="1"/>
+      <c r="CV27" s="1"/>
+      <c r="CW27" s="1"/>
+      <c r="CX27" s="1"/>
+      <c r="CY27" s="1"/>
+      <c r="CZ27" s="1"/>
+      <c r="DA27" s="1"/>
+      <c r="DB27" s="1"/>
+      <c r="DC27" s="1"/>
+      <c r="DD27" s="1"/>
+      <c r="DE27" s="1"/>
+      <c r="DF27" s="1"/>
+      <c r="DG27" s="1"/>
+      <c r="DH27" s="1"/>
+      <c r="DI27" s="1"/>
+      <c r="DJ27" s="1"/>
+      <c r="DK27" s="1"/>
+      <c r="DL27" s="1"/>
+      <c r="DM27" s="1"/>
+      <c r="DN27" s="1"/>
+      <c r="DO27" s="1"/>
+      <c r="DP27" s="1"/>
+      <c r="DQ27" s="1"/>
+      <c r="DR27" s="1"/>
+      <c r="DS27" s="1"/>
+      <c r="DT27" s="1"/>
+      <c r="DU27" s="1"/>
+      <c r="DV27" s="1"/>
+      <c r="DW27" s="1"/>
+      <c r="DX27" s="1"/>
+      <c r="DY27" s="1"/>
+      <c r="DZ27" s="1"/>
+      <c r="EA27" s="1"/>
+      <c r="EB27" s="1"/>
+      <c r="EC27" s="1"/>
+      <c r="ED27" s="1"/>
+      <c r="EE27" s="1"/>
+      <c r="EF27" s="1"/>
+      <c r="EG27" s="1"/>
+      <c r="EH27" s="1"/>
+      <c r="EI27" s="1"/>
+      <c r="EJ27" s="1"/>
+      <c r="EK27" s="1"/>
+      <c r="EL27" s="1"/>
+      <c r="EM27" s="1"/>
+      <c r="EN27" s="1"/>
+      <c r="EO27" s="1"/>
+      <c r="EP27" s="1"/>
+      <c r="EQ27" s="1"/>
+      <c r="ER27" s="1"/>
+      <c r="ES27" s="1"/>
+      <c r="ET27" s="1"/>
+      <c r="EU27" s="1"/>
+      <c r="EV27" s="1"/>
+      <c r="EW27" s="1"/>
+      <c r="EX27" s="1"/>
+      <c r="EY27" s="1"/>
+      <c r="EZ27" s="1"/>
+      <c r="FA27" s="1"/>
+      <c r="FB27" s="1"/>
+      <c r="FC27" s="1"/>
+      <c r="FD27" s="1"/>
+      <c r="FE27" s="1"/>
+      <c r="FF27" s="1"/>
+      <c r="FG27" s="1"/>
+      <c r="FH27" s="1"/>
+      <c r="FI27" s="1"/>
+      <c r="FJ27" s="1"/>
+      <c r="FK27" s="1"/>
+      <c r="FL27" s="1"/>
+      <c r="FM27" s="1"/>
+      <c r="FN27" s="1"/>
+      <c r="FO27" s="1"/>
+      <c r="FP27" s="1"/>
+      <c r="FQ27" s="1"/>
+      <c r="FR27" s="1"/>
+      <c r="FS27" s="1"/>
+      <c r="FT27" s="1"/>
+      <c r="FU27" s="1"/>
+      <c r="FV27" s="1"/>
+      <c r="FW27" s="1"/>
+      <c r="FX27" s="1"/>
+      <c r="FY27" s="1"/>
+      <c r="FZ27" s="1"/>
+      <c r="GA27" s="1"/>
+      <c r="GB27" s="1"/>
+      <c r="GC27" s="1"/>
+      <c r="GD27" s="1"/>
+      <c r="GE27" s="1"/>
+      <c r="GF27" s="1"/>
+      <c r="GG27" s="1"/>
+      <c r="GH27" s="1"/>
+      <c r="GI27" s="1"/>
+      <c r="GJ27" s="1"/>
+      <c r="GK27" s="1"/>
+      <c r="GL27" s="1"/>
+      <c r="GM27" s="1"/>
+      <c r="GN27" s="1"/>
+      <c r="GO27" s="1"/>
+      <c r="GP27" s="1"/>
+      <c r="GQ27" s="1"/>
+      <c r="GR27" s="1"/>
+      <c r="GS27" s="1"/>
+      <c r="GT27" s="1"/>
+      <c r="GU27" s="1"/>
+      <c r="GV27" s="1"/>
+      <c r="GW27" s="1"/>
+      <c r="GX27" s="1"/>
+      <c r="GY27" s="1"/>
+      <c r="GZ27" s="1"/>
+      <c r="HA27" s="1"/>
+      <c r="HB27" s="1"/>
+      <c r="HC27" s="1"/>
+      <c r="HD27" s="1"/>
+      <c r="HE27" s="1"/>
+      <c r="HF27" s="1"/>
+      <c r="HG27" s="1"/>
+      <c r="HH27" s="1"/>
+      <c r="HI27" s="1"/>
+      <c r="HJ27" s="1"/>
     </row>
-    <row r="28" spans="1:218" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="15"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="15"/>
-      <c r="AD28" s="15"/>
-      <c r="AE28" s="15"/>
-      <c r="AF28" s="15"/>
-      <c r="AG28" s="15"/>
-      <c r="AH28" s="15"/>
-      <c r="AI28" s="15"/>
-      <c r="AJ28" s="15"/>
-      <c r="AK28" s="15"/>
-      <c r="AL28" s="15"/>
-      <c r="AM28" s="15"/>
-      <c r="AN28" s="15"/>
-      <c r="AO28" s="15"/>
-      <c r="AP28" s="15"/>
-      <c r="AQ28" s="15"/>
-      <c r="AR28" s="15"/>
-      <c r="AS28" s="15"/>
-      <c r="AT28" s="15"/>
-      <c r="AU28" s="15"/>
-      <c r="AV28" s="15"/>
-      <c r="AW28" s="15"/>
-      <c r="AX28" s="15"/>
-      <c r="AY28" s="15"/>
-      <c r="AZ28" s="15"/>
-      <c r="BA28" s="15"/>
-      <c r="BB28" s="15"/>
-      <c r="BC28" s="15"/>
-      <c r="BD28" s="15"/>
-      <c r="BE28" s="15"/>
-      <c r="BF28" s="15"/>
-      <c r="BG28" s="15"/>
-      <c r="BH28" s="15"/>
-      <c r="BI28" s="15"/>
-      <c r="BJ28" s="15"/>
-      <c r="BK28" s="15"/>
-      <c r="BL28" s="15"/>
-      <c r="BM28" s="15"/>
-      <c r="BN28" s="15"/>
-      <c r="BO28" s="15"/>
-      <c r="BP28" s="15"/>
-      <c r="BQ28" s="15"/>
-      <c r="BR28" s="15"/>
-      <c r="BS28" s="15"/>
-      <c r="BT28" s="15"/>
-      <c r="BU28" s="15"/>
-      <c r="BV28" s="15"/>
-      <c r="BW28" s="15"/>
-      <c r="BX28" s="15"/>
-      <c r="BY28" s="15"/>
-      <c r="BZ28" s="15"/>
-      <c r="CA28" s="15"/>
-      <c r="CB28" s="15"/>
-      <c r="CC28" s="15"/>
-      <c r="CD28" s="15"/>
-      <c r="CE28" s="15"/>
-      <c r="CF28" s="15"/>
-      <c r="CG28" s="15"/>
-      <c r="CH28" s="15"/>
-      <c r="CI28" s="15"/>
-      <c r="CJ28" s="15"/>
-      <c r="CK28" s="15"/>
-      <c r="CL28" s="15"/>
-      <c r="CM28" s="15"/>
-      <c r="CN28" s="15"/>
-      <c r="CO28" s="15"/>
-      <c r="CP28" s="15"/>
-      <c r="CQ28" s="15"/>
-      <c r="CR28" s="15"/>
-      <c r="CS28" s="15"/>
-      <c r="CT28" s="15"/>
-      <c r="CU28" s="15"/>
-      <c r="CV28" s="15"/>
-      <c r="CW28" s="15"/>
-      <c r="CX28" s="15"/>
-      <c r="CY28" s="15"/>
-      <c r="CZ28" s="15"/>
-      <c r="DA28" s="15"/>
-      <c r="DB28" s="15"/>
-      <c r="DC28" s="15"/>
-      <c r="DD28" s="15"/>
-      <c r="DE28" s="15"/>
-      <c r="DF28" s="15"/>
-      <c r="DG28" s="15"/>
-      <c r="DH28" s="15"/>
-      <c r="DI28" s="15"/>
-      <c r="DJ28" s="15"/>
-      <c r="DK28" s="15"/>
-      <c r="DL28" s="15"/>
-      <c r="DM28" s="15"/>
-      <c r="DN28" s="15"/>
-      <c r="DO28" s="15"/>
-      <c r="DP28" s="15"/>
-      <c r="DQ28" s="15"/>
-      <c r="DR28" s="15"/>
-      <c r="DS28" s="15"/>
-      <c r="DT28" s="15"/>
-      <c r="DU28" s="15"/>
-      <c r="DV28" s="15"/>
-      <c r="DW28" s="15"/>
-      <c r="DX28" s="15"/>
-      <c r="DY28" s="15"/>
-      <c r="DZ28" s="15"/>
-      <c r="EA28" s="15"/>
-      <c r="EB28" s="15"/>
-      <c r="EC28" s="15"/>
-      <c r="ED28" s="15"/>
-      <c r="EE28" s="15"/>
-      <c r="EF28" s="15"/>
-      <c r="EG28" s="15"/>
-      <c r="EH28" s="15"/>
-      <c r="EI28" s="15"/>
-      <c r="EJ28" s="15"/>
-      <c r="EK28" s="15"/>
-      <c r="EL28" s="15"/>
-      <c r="EM28" s="15"/>
-      <c r="EN28" s="15"/>
-      <c r="EO28" s="15"/>
-      <c r="EP28" s="15"/>
-      <c r="EQ28" s="15"/>
-      <c r="ER28" s="15"/>
-      <c r="ES28" s="15"/>
-      <c r="ET28" s="15"/>
-      <c r="EU28" s="15"/>
-      <c r="EV28" s="15"/>
-      <c r="EW28" s="15"/>
-      <c r="EX28" s="15"/>
-      <c r="EY28" s="15"/>
-      <c r="EZ28" s="15"/>
-      <c r="FA28" s="15"/>
-      <c r="FB28" s="15"/>
-      <c r="FC28" s="15"/>
-      <c r="FD28" s="15"/>
-      <c r="FE28" s="15"/>
-      <c r="FF28" s="15"/>
-      <c r="FG28" s="15"/>
-      <c r="FH28" s="15"/>
-      <c r="FI28" s="15"/>
-      <c r="FJ28" s="15"/>
-      <c r="FK28" s="15"/>
-      <c r="FL28" s="15"/>
-      <c r="FM28" s="15"/>
-      <c r="FN28" s="15"/>
-      <c r="FO28" s="15"/>
-      <c r="FP28" s="15"/>
-      <c r="FQ28" s="15"/>
-      <c r="FR28" s="15"/>
-      <c r="FS28" s="15"/>
-      <c r="FT28" s="15"/>
-      <c r="FU28" s="15"/>
-      <c r="FV28" s="15"/>
-      <c r="FW28" s="15"/>
-      <c r="FX28" s="15"/>
-      <c r="FY28" s="15"/>
-      <c r="FZ28" s="15"/>
-      <c r="GA28" s="15"/>
-      <c r="GB28" s="15"/>
-      <c r="GC28" s="15"/>
-      <c r="GD28" s="15"/>
-      <c r="GE28" s="15"/>
-      <c r="GF28" s="15"/>
-      <c r="GG28" s="15"/>
-      <c r="GH28" s="15"/>
-      <c r="GI28" s="15"/>
-      <c r="GJ28" s="15"/>
-      <c r="GK28" s="15"/>
-      <c r="GL28" s="15"/>
-      <c r="GM28" s="15"/>
-      <c r="GN28" s="15"/>
-      <c r="GO28" s="15"/>
-      <c r="GP28" s="15"/>
-      <c r="GQ28" s="15"/>
-      <c r="GR28" s="15"/>
-      <c r="GS28" s="15"/>
-      <c r="GT28" s="15"/>
-      <c r="GU28" s="15"/>
-      <c r="GV28" s="15"/>
-      <c r="GW28" s="15"/>
-      <c r="GX28" s="15"/>
-      <c r="GY28" s="15"/>
-      <c r="GZ28" s="15"/>
-      <c r="HA28" s="15"/>
-      <c r="HB28" s="15"/>
-      <c r="HC28" s="15"/>
-      <c r="HD28" s="15"/>
-      <c r="HE28" s="15"/>
-      <c r="HF28" s="15"/>
-      <c r="HG28" s="15"/>
-      <c r="HH28" s="15"/>
-      <c r="HI28" s="15"/>
-      <c r="HJ28" s="15"/>
+    <row r="28" spans="1:218" x14ac:dyDescent="0.25">
+      <c r="M28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="1"/>
+      <c r="AY28" s="1"/>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="1"/>
+      <c r="BD28" s="1"/>
+      <c r="BE28" s="1"/>
+      <c r="BF28" s="1"/>
+      <c r="BG28" s="1"/>
+      <c r="BH28" s="1"/>
+      <c r="BI28" s="1"/>
+      <c r="BJ28" s="1"/>
+      <c r="BK28" s="1"/>
+      <c r="BL28" s="1"/>
+      <c r="BM28" s="1"/>
+      <c r="BN28" s="1"/>
+      <c r="BO28" s="1"/>
+      <c r="BP28" s="1"/>
+      <c r="BQ28" s="1"/>
+      <c r="BR28" s="1"/>
+      <c r="BS28" s="1"/>
+      <c r="BT28" s="1"/>
+      <c r="BU28" s="1"/>
+      <c r="BV28" s="1"/>
+      <c r="BW28" s="1"/>
+      <c r="BX28" s="1"/>
+      <c r="BY28" s="1"/>
+      <c r="BZ28" s="1"/>
+      <c r="CA28" s="1"/>
+      <c r="CB28" s="1"/>
+      <c r="CC28" s="1"/>
+      <c r="CD28" s="1"/>
+      <c r="CE28" s="1"/>
+      <c r="CF28" s="1"/>
+      <c r="CG28" s="1"/>
+      <c r="CH28" s="1"/>
+      <c r="CI28" s="1"/>
+      <c r="CJ28" s="1"/>
+      <c r="CK28" s="1"/>
+      <c r="CL28" s="1"/>
+      <c r="CM28" s="1"/>
+      <c r="CN28" s="1"/>
+      <c r="CO28" s="1"/>
+      <c r="CP28" s="1"/>
+      <c r="CQ28" s="1"/>
+      <c r="CR28" s="1"/>
+      <c r="CS28" s="1"/>
+      <c r="CT28" s="1"/>
+      <c r="CU28" s="1"/>
+      <c r="CV28" s="1"/>
+      <c r="CW28" s="1"/>
+      <c r="CX28" s="1"/>
+      <c r="CY28" s="1"/>
+      <c r="CZ28" s="1"/>
+      <c r="DA28" s="1"/>
+      <c r="DB28" s="1"/>
+      <c r="DC28" s="1"/>
+      <c r="DD28" s="1"/>
+      <c r="DE28" s="1"/>
+      <c r="DF28" s="1"/>
+      <c r="DG28" s="1"/>
+      <c r="DH28" s="1"/>
+      <c r="DI28" s="1"/>
+      <c r="DJ28" s="1"/>
+      <c r="DK28" s="1"/>
+      <c r="DL28" s="1"/>
+      <c r="DM28" s="1"/>
+      <c r="DN28" s="1"/>
+      <c r="DO28" s="1"/>
+      <c r="DP28" s="1"/>
+      <c r="DQ28" s="1"/>
+      <c r="DR28" s="1"/>
+      <c r="DS28" s="1"/>
+      <c r="DT28" s="1"/>
+      <c r="DU28" s="1"/>
+      <c r="DV28" s="1"/>
+      <c r="DW28" s="1"/>
+      <c r="DX28" s="1"/>
+      <c r="DY28" s="1"/>
+      <c r="DZ28" s="1"/>
+      <c r="EA28" s="1"/>
+      <c r="EB28" s="1"/>
+      <c r="EC28" s="1"/>
+      <c r="ED28" s="1"/>
+      <c r="EE28" s="1"/>
+      <c r="EF28" s="1"/>
+      <c r="EG28" s="1"/>
+      <c r="EH28" s="1"/>
+      <c r="EI28" s="1"/>
+      <c r="EJ28" s="1"/>
+      <c r="EK28" s="1"/>
+      <c r="EL28" s="1"/>
+      <c r="EM28" s="1"/>
+      <c r="EN28" s="1"/>
+      <c r="EO28" s="1"/>
+      <c r="EP28" s="1"/>
+      <c r="EQ28" s="1"/>
+      <c r="ER28" s="1"/>
+      <c r="ES28" s="1"/>
+      <c r="ET28" s="1"/>
+      <c r="EU28" s="1"/>
+      <c r="EV28" s="1"/>
+      <c r="EW28" s="1"/>
+      <c r="EX28" s="1"/>
+      <c r="EY28" s="1"/>
+      <c r="EZ28" s="1"/>
+      <c r="FA28" s="1"/>
+      <c r="FB28" s="1"/>
+      <c r="FC28" s="1"/>
+      <c r="FD28" s="1"/>
+      <c r="FE28" s="1"/>
+      <c r="FF28" s="1"/>
+      <c r="FG28" s="1"/>
+      <c r="FH28" s="1"/>
+      <c r="FI28" s="1"/>
+      <c r="FJ28" s="1"/>
+      <c r="FK28" s="1"/>
+      <c r="FL28" s="1"/>
+      <c r="FM28" s="1"/>
+      <c r="FN28" s="1"/>
+      <c r="FO28" s="1"/>
+      <c r="FP28" s="1"/>
+      <c r="FQ28" s="1"/>
+      <c r="FR28" s="1"/>
+      <c r="FS28" s="1"/>
+      <c r="FT28" s="1"/>
+      <c r="FU28" s="1"/>
+      <c r="FV28" s="1"/>
+      <c r="FW28" s="1"/>
+      <c r="FX28" s="1"/>
+      <c r="FY28" s="1"/>
+      <c r="FZ28" s="1"/>
+      <c r="GA28" s="1"/>
+      <c r="GB28" s="1"/>
+      <c r="GC28" s="1"/>
+      <c r="GD28" s="1"/>
+      <c r="GE28" s="1"/>
+      <c r="GF28" s="1"/>
+      <c r="GG28" s="1"/>
+      <c r="GH28" s="1"/>
+      <c r="GI28" s="1"/>
+      <c r="GJ28" s="1"/>
+      <c r="GK28" s="1"/>
+      <c r="GL28" s="1"/>
+      <c r="GM28" s="1"/>
+      <c r="GN28" s="1"/>
+      <c r="GO28" s="1"/>
+      <c r="GP28" s="1"/>
+      <c r="GQ28" s="1"/>
+      <c r="GR28" s="1"/>
+      <c r="GS28" s="1"/>
+      <c r="GT28" s="1"/>
+      <c r="GU28" s="1"/>
+      <c r="GV28" s="1"/>
+      <c r="GW28" s="1"/>
+      <c r="GX28" s="1"/>
+      <c r="GY28" s="1"/>
+      <c r="GZ28" s="1"/>
+      <c r="HA28" s="1"/>
+      <c r="HB28" s="1"/>
+      <c r="HC28" s="1"/>
+      <c r="HD28" s="1"/>
+      <c r="HE28" s="1"/>
+      <c r="HF28" s="1"/>
+      <c r="HG28" s="1"/>
+      <c r="HH28" s="1"/>
+      <c r="HI28" s="1"/>
+      <c r="HJ28" s="1"/>
     </row>
-    <row r="29" spans="1:218" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
+    <row r="29" spans="1:218" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="15">
+      <c r="M29" s="1"/>
+      <c r="P29" s="1">
         <f t="shared" ref="P29" si="33">P17+P26</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="15">
+      <c r="Q29" s="1">
         <f t="shared" ref="Q29:W29" si="34">Q17+Q26</f>
         <v>621.50000000000045</v>
       </c>
-      <c r="R29" s="15">
+      <c r="R29" s="1">
         <f t="shared" si="34"/>
         <v>612.19999999999993</v>
       </c>
-      <c r="S29" s="15">
+      <c r="S29" s="1">
         <f t="shared" si="34"/>
         <v>1179.5000000000005</v>
       </c>
-      <c r="T29" s="15">
+      <c r="T29" s="1">
         <f t="shared" si="34"/>
         <v>1369.1</v>
       </c>
-      <c r="U29" s="15">
+      <c r="U29" s="1">
         <f t="shared" si="34"/>
         <v>1038.8999999999992</v>
       </c>
-      <c r="V29" s="15">
+      <c r="V29" s="1">
         <f t="shared" si="34"/>
         <v>985.90000000000077</v>
       </c>
-      <c r="W29" s="15">
+      <c r="W29" s="1">
         <f t="shared" si="34"/>
         <v>1895.0000000000005</v>
       </c>
-      <c r="X29" s="15">
+      <c r="X29" s="1">
         <f>X17+X26</f>
         <v>2922.8000000000011</v>
       </c>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="15"/>
-      <c r="AD29" s="15"/>
-      <c r="AE29" s="15"/>
-      <c r="AF29" s="15"/>
-      <c r="AG29" s="15"/>
-      <c r="AH29" s="15"/>
-      <c r="AI29" s="15"/>
-      <c r="AJ29" s="15"/>
-      <c r="AK29" s="15"/>
-      <c r="AL29" s="15"/>
-      <c r="AM29" s="15"/>
-      <c r="AN29" s="15"/>
-      <c r="AO29" s="15"/>
-      <c r="AP29" s="15"/>
-      <c r="AQ29" s="15"/>
-      <c r="AR29" s="15"/>
-      <c r="AS29" s="15"/>
-      <c r="AT29" s="15"/>
-      <c r="AU29" s="15"/>
-      <c r="AV29" s="15"/>
-      <c r="AW29" s="15"/>
-      <c r="AX29" s="15"/>
-      <c r="AY29" s="15"/>
-      <c r="AZ29" s="15"/>
-      <c r="BA29" s="15"/>
-      <c r="BB29" s="15"/>
-      <c r="BC29" s="15"/>
-      <c r="BD29" s="15"/>
-      <c r="BE29" s="15"/>
-      <c r="BF29" s="15"/>
-      <c r="BG29" s="15"/>
-      <c r="BH29" s="15"/>
-      <c r="BI29" s="15"/>
-      <c r="BJ29" s="15"/>
-      <c r="BK29" s="15"/>
-      <c r="BL29" s="15"/>
-      <c r="BM29" s="15"/>
-      <c r="BN29" s="15"/>
-      <c r="BO29" s="15"/>
-      <c r="BP29" s="15"/>
-      <c r="BQ29" s="15"/>
-      <c r="BR29" s="15"/>
-      <c r="BS29" s="15"/>
-      <c r="BT29" s="15"/>
-      <c r="BU29" s="15"/>
-      <c r="BV29" s="15"/>
-      <c r="BW29" s="15"/>
-      <c r="BX29" s="15"/>
-      <c r="BY29" s="15"/>
-      <c r="BZ29" s="15"/>
-      <c r="CA29" s="15"/>
-      <c r="CB29" s="15"/>
-      <c r="CC29" s="15"/>
-      <c r="CD29" s="15"/>
-      <c r="CE29" s="15"/>
-      <c r="CF29" s="15"/>
-      <c r="CG29" s="15"/>
-      <c r="CH29" s="15"/>
-      <c r="CI29" s="15"/>
-      <c r="CJ29" s="15"/>
-      <c r="CK29" s="15"/>
-      <c r="CL29" s="15"/>
-      <c r="CM29" s="15"/>
-      <c r="CN29" s="15"/>
-      <c r="CO29" s="15"/>
-      <c r="CP29" s="15"/>
-      <c r="CQ29" s="15"/>
-      <c r="CR29" s="15"/>
-      <c r="CS29" s="15"/>
-      <c r="CT29" s="15"/>
-      <c r="CU29" s="15"/>
-      <c r="CV29" s="15"/>
-      <c r="CW29" s="15"/>
-      <c r="CX29" s="15"/>
-      <c r="CY29" s="15"/>
-      <c r="CZ29" s="15"/>
-      <c r="DA29" s="15"/>
-      <c r="DB29" s="15"/>
-      <c r="DC29" s="15"/>
-      <c r="DD29" s="15"/>
-      <c r="DE29" s="15"/>
-      <c r="DF29" s="15"/>
-      <c r="DG29" s="15"/>
-      <c r="DH29" s="15"/>
-      <c r="DI29" s="15"/>
-      <c r="DJ29" s="15"/>
-      <c r="DK29" s="15"/>
-      <c r="DL29" s="15"/>
-      <c r="DM29" s="15"/>
-      <c r="DN29" s="15"/>
-      <c r="DO29" s="15"/>
-      <c r="DP29" s="15"/>
-      <c r="DQ29" s="15"/>
-      <c r="DR29" s="15"/>
-      <c r="DS29" s="15"/>
-      <c r="DT29" s="15"/>
-      <c r="DU29" s="15"/>
-      <c r="DV29" s="15"/>
-      <c r="DW29" s="15"/>
-      <c r="DX29" s="15"/>
-      <c r="DY29" s="15"/>
-      <c r="DZ29" s="15"/>
-      <c r="EA29" s="15"/>
-      <c r="EB29" s="15"/>
-      <c r="EC29" s="15"/>
-      <c r="ED29" s="15"/>
-      <c r="EE29" s="15"/>
-      <c r="EF29" s="15"/>
-      <c r="EG29" s="15"/>
-      <c r="EH29" s="15"/>
-      <c r="EI29" s="15"/>
-      <c r="EJ29" s="15"/>
-      <c r="EK29" s="15"/>
-      <c r="EL29" s="15"/>
-      <c r="EM29" s="15"/>
-      <c r="EN29" s="15"/>
-      <c r="EO29" s="15"/>
-      <c r="EP29" s="15"/>
-      <c r="EQ29" s="15"/>
-      <c r="ER29" s="15"/>
-      <c r="ES29" s="15"/>
-      <c r="ET29" s="15"/>
-      <c r="EU29" s="15"/>
-      <c r="EV29" s="15"/>
-      <c r="EW29" s="15"/>
-      <c r="EX29" s="15"/>
-      <c r="EY29" s="15"/>
-      <c r="EZ29" s="15"/>
-      <c r="FA29" s="15"/>
-      <c r="FB29" s="15"/>
-      <c r="FC29" s="15"/>
-      <c r="FD29" s="15"/>
-      <c r="FE29" s="15"/>
-      <c r="FF29" s="15"/>
-      <c r="FG29" s="15"/>
-      <c r="FH29" s="15"/>
-      <c r="FI29" s="15"/>
-      <c r="FJ29" s="15"/>
-      <c r="FK29" s="15"/>
-      <c r="FL29" s="15"/>
-      <c r="FM29" s="15"/>
-      <c r="FN29" s="15"/>
-      <c r="FO29" s="15"/>
-      <c r="FP29" s="15"/>
-      <c r="FQ29" s="15"/>
-      <c r="FR29" s="15"/>
-      <c r="FS29" s="15"/>
-      <c r="FT29" s="15"/>
-      <c r="FU29" s="15"/>
-      <c r="FV29" s="15"/>
-      <c r="FW29" s="15"/>
-      <c r="FX29" s="15"/>
-      <c r="FY29" s="15"/>
-      <c r="FZ29" s="15"/>
-      <c r="GA29" s="15"/>
-      <c r="GB29" s="15"/>
-      <c r="GC29" s="15"/>
-      <c r="GD29" s="15"/>
-      <c r="GE29" s="15"/>
-      <c r="GF29" s="15"/>
-      <c r="GG29" s="15"/>
-      <c r="GH29" s="15"/>
-      <c r="GI29" s="15"/>
-      <c r="GJ29" s="15"/>
-      <c r="GK29" s="15"/>
-      <c r="GL29" s="15"/>
-      <c r="GM29" s="15"/>
-      <c r="GN29" s="15"/>
-      <c r="GO29" s="15"/>
-      <c r="GP29" s="15"/>
-      <c r="GQ29" s="15"/>
-      <c r="GR29" s="15"/>
-      <c r="GS29" s="15"/>
-      <c r="GT29" s="15"/>
-      <c r="GU29" s="15"/>
-      <c r="GV29" s="15"/>
-      <c r="GW29" s="15"/>
-      <c r="GX29" s="15"/>
-      <c r="GY29" s="15"/>
-      <c r="GZ29" s="15"/>
-      <c r="HA29" s="15"/>
-      <c r="HB29" s="15"/>
-      <c r="HC29" s="15"/>
-      <c r="HD29" s="15"/>
-      <c r="HE29" s="15"/>
-      <c r="HF29" s="15"/>
-      <c r="HG29" s="15"/>
-      <c r="HH29" s="15"/>
-      <c r="HI29" s="15"/>
-      <c r="HJ29" s="15"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="1"/>
+      <c r="BD29" s="1"/>
+      <c r="BE29" s="1"/>
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1"/>
+      <c r="BH29" s="1"/>
+      <c r="BI29" s="1"/>
+      <c r="BJ29" s="1"/>
+      <c r="BK29" s="1"/>
+      <c r="BL29" s="1"/>
+      <c r="BM29" s="1"/>
+      <c r="BN29" s="1"/>
+      <c r="BO29" s="1"/>
+      <c r="BP29" s="1"/>
+      <c r="BQ29" s="1"/>
+      <c r="BR29" s="1"/>
+      <c r="BS29" s="1"/>
+      <c r="BT29" s="1"/>
+      <c r="BU29" s="1"/>
+      <c r="BV29" s="1"/>
+      <c r="BW29" s="1"/>
+      <c r="BX29" s="1"/>
+      <c r="BY29" s="1"/>
+      <c r="BZ29" s="1"/>
+      <c r="CA29" s="1"/>
+      <c r="CB29" s="1"/>
+      <c r="CC29" s="1"/>
+      <c r="CD29" s="1"/>
+      <c r="CE29" s="1"/>
+      <c r="CF29" s="1"/>
+      <c r="CG29" s="1"/>
+      <c r="CH29" s="1"/>
+      <c r="CI29" s="1"/>
+      <c r="CJ29" s="1"/>
+      <c r="CK29" s="1"/>
+      <c r="CL29" s="1"/>
+      <c r="CM29" s="1"/>
+      <c r="CN29" s="1"/>
+      <c r="CO29" s="1"/>
+      <c r="CP29" s="1"/>
+      <c r="CQ29" s="1"/>
+      <c r="CR29" s="1"/>
+      <c r="CS29" s="1"/>
+      <c r="CT29" s="1"/>
+      <c r="CU29" s="1"/>
+      <c r="CV29" s="1"/>
+      <c r="CW29" s="1"/>
+      <c r="CX29" s="1"/>
+      <c r="CY29" s="1"/>
+      <c r="CZ29" s="1"/>
+      <c r="DA29" s="1"/>
+      <c r="DB29" s="1"/>
+      <c r="DC29" s="1"/>
+      <c r="DD29" s="1"/>
+      <c r="DE29" s="1"/>
+      <c r="DF29" s="1"/>
+      <c r="DG29" s="1"/>
+      <c r="DH29" s="1"/>
+      <c r="DI29" s="1"/>
+      <c r="DJ29" s="1"/>
+      <c r="DK29" s="1"/>
+      <c r="DL29" s="1"/>
+      <c r="DM29" s="1"/>
+      <c r="DN29" s="1"/>
+      <c r="DO29" s="1"/>
+      <c r="DP29" s="1"/>
+      <c r="DQ29" s="1"/>
+      <c r="DR29" s="1"/>
+      <c r="DS29" s="1"/>
+      <c r="DT29" s="1"/>
+      <c r="DU29" s="1"/>
+      <c r="DV29" s="1"/>
+      <c r="DW29" s="1"/>
+      <c r="DX29" s="1"/>
+      <c r="DY29" s="1"/>
+      <c r="DZ29" s="1"/>
+      <c r="EA29" s="1"/>
+      <c r="EB29" s="1"/>
+      <c r="EC29" s="1"/>
+      <c r="ED29" s="1"/>
+      <c r="EE29" s="1"/>
+      <c r="EF29" s="1"/>
+      <c r="EG29" s="1"/>
+      <c r="EH29" s="1"/>
+      <c r="EI29" s="1"/>
+      <c r="EJ29" s="1"/>
+      <c r="EK29" s="1"/>
+      <c r="EL29" s="1"/>
+      <c r="EM29" s="1"/>
+      <c r="EN29" s="1"/>
+      <c r="EO29" s="1"/>
+      <c r="EP29" s="1"/>
+      <c r="EQ29" s="1"/>
+      <c r="ER29" s="1"/>
+      <c r="ES29" s="1"/>
+      <c r="ET29" s="1"/>
+      <c r="EU29" s="1"/>
+      <c r="EV29" s="1"/>
+      <c r="EW29" s="1"/>
+      <c r="EX29" s="1"/>
+      <c r="EY29" s="1"/>
+      <c r="EZ29" s="1"/>
+      <c r="FA29" s="1"/>
+      <c r="FB29" s="1"/>
+      <c r="FC29" s="1"/>
+      <c r="FD29" s="1"/>
+      <c r="FE29" s="1"/>
+      <c r="FF29" s="1"/>
+      <c r="FG29" s="1"/>
+      <c r="FH29" s="1"/>
+      <c r="FI29" s="1"/>
+      <c r="FJ29" s="1"/>
+      <c r="FK29" s="1"/>
+      <c r="FL29" s="1"/>
+      <c r="FM29" s="1"/>
+      <c r="FN29" s="1"/>
+      <c r="FO29" s="1"/>
+      <c r="FP29" s="1"/>
+      <c r="FQ29" s="1"/>
+      <c r="FR29" s="1"/>
+      <c r="FS29" s="1"/>
+      <c r="FT29" s="1"/>
+      <c r="FU29" s="1"/>
+      <c r="FV29" s="1"/>
+      <c r="FW29" s="1"/>
+      <c r="FX29" s="1"/>
+      <c r="FY29" s="1"/>
+      <c r="FZ29" s="1"/>
+      <c r="GA29" s="1"/>
+      <c r="GB29" s="1"/>
+      <c r="GC29" s="1"/>
+      <c r="GD29" s="1"/>
+      <c r="GE29" s="1"/>
+      <c r="GF29" s="1"/>
+      <c r="GG29" s="1"/>
+      <c r="GH29" s="1"/>
+      <c r="GI29" s="1"/>
+      <c r="GJ29" s="1"/>
+      <c r="GK29" s="1"/>
+      <c r="GL29" s="1"/>
+      <c r="GM29" s="1"/>
+      <c r="GN29" s="1"/>
+      <c r="GO29" s="1"/>
+      <c r="GP29" s="1"/>
+      <c r="GQ29" s="1"/>
+      <c r="GR29" s="1"/>
+      <c r="GS29" s="1"/>
+      <c r="GT29" s="1"/>
+      <c r="GU29" s="1"/>
+      <c r="GV29" s="1"/>
+      <c r="GW29" s="1"/>
+      <c r="GX29" s="1"/>
+      <c r="GY29" s="1"/>
+      <c r="GZ29" s="1"/>
+      <c r="HA29" s="1"/>
+      <c r="HB29" s="1"/>
+      <c r="HC29" s="1"/>
+      <c r="HD29" s="1"/>
+      <c r="HE29" s="1"/>
+      <c r="HF29" s="1"/>
+      <c r="HG29" s="1"/>
+      <c r="HH29" s="1"/>
+      <c r="HI29" s="1"/>
+      <c r="HJ29" s="1"/>
     </row>
-    <row r="30" spans="1:218" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="15"/>
-      <c r="AF30" s="15"/>
-      <c r="AG30" s="15"/>
-      <c r="AH30" s="15"/>
-      <c r="AI30" s="15"/>
-      <c r="AJ30" s="15"/>
-      <c r="AK30" s="15"/>
-      <c r="AL30" s="15"/>
-      <c r="AM30" s="15"/>
-      <c r="AN30" s="15"/>
-      <c r="AO30" s="15"/>
-      <c r="AP30" s="15"/>
-      <c r="AQ30" s="15"/>
-      <c r="AR30" s="15"/>
-      <c r="AS30" s="15"/>
-      <c r="AT30" s="15"/>
-      <c r="AU30" s="15"/>
-      <c r="AV30" s="15"/>
-      <c r="AW30" s="15"/>
-      <c r="AX30" s="15"/>
-      <c r="AY30" s="15"/>
-      <c r="AZ30" s="15"/>
-      <c r="BA30" s="15"/>
-      <c r="BB30" s="15"/>
-      <c r="BC30" s="15"/>
-      <c r="BD30" s="15"/>
-      <c r="BE30" s="15"/>
-      <c r="BF30" s="15"/>
-      <c r="BG30" s="15"/>
-      <c r="BH30" s="15"/>
-      <c r="BI30" s="15"/>
-      <c r="BJ30" s="15"/>
-      <c r="BK30" s="15"/>
-      <c r="BL30" s="15"/>
-      <c r="BM30" s="15"/>
-      <c r="BN30" s="15"/>
-      <c r="BO30" s="15"/>
-      <c r="BP30" s="15"/>
-      <c r="BQ30" s="15"/>
-      <c r="BR30" s="15"/>
-      <c r="BS30" s="15"/>
-      <c r="BT30" s="15"/>
-      <c r="BU30" s="15"/>
-      <c r="BV30" s="15"/>
-      <c r="BW30" s="15"/>
-      <c r="BX30" s="15"/>
-      <c r="BY30" s="15"/>
-      <c r="BZ30" s="15"/>
-      <c r="CA30" s="15"/>
-      <c r="CB30" s="15"/>
-      <c r="CC30" s="15"/>
-      <c r="CD30" s="15"/>
-      <c r="CE30" s="15"/>
-      <c r="CF30" s="15"/>
-      <c r="CG30" s="15"/>
-      <c r="CH30" s="15"/>
-      <c r="CI30" s="15"/>
-      <c r="CJ30" s="15"/>
-      <c r="CK30" s="15"/>
-      <c r="CL30" s="15"/>
-      <c r="CM30" s="15"/>
-      <c r="CN30" s="15"/>
-      <c r="CO30" s="15"/>
-      <c r="CP30" s="15"/>
-      <c r="CQ30" s="15"/>
-      <c r="CR30" s="15"/>
-      <c r="CS30" s="15"/>
-      <c r="CT30" s="15"/>
-      <c r="CU30" s="15"/>
-      <c r="CV30" s="15"/>
-      <c r="CW30" s="15"/>
-      <c r="CX30" s="15"/>
-      <c r="CY30" s="15"/>
-      <c r="CZ30" s="15"/>
-      <c r="DA30" s="15"/>
-      <c r="DB30" s="15"/>
-      <c r="DC30" s="15"/>
-      <c r="DD30" s="15"/>
-      <c r="DE30" s="15"/>
-      <c r="DF30" s="15"/>
-      <c r="DG30" s="15"/>
-      <c r="DH30" s="15"/>
-      <c r="DI30" s="15"/>
-      <c r="DJ30" s="15"/>
-      <c r="DK30" s="15"/>
-      <c r="DL30" s="15"/>
-      <c r="DM30" s="15"/>
-      <c r="DN30" s="15"/>
-      <c r="DO30" s="15"/>
-      <c r="DP30" s="15"/>
-      <c r="DQ30" s="15"/>
-      <c r="DR30" s="15"/>
-      <c r="DS30" s="15"/>
-      <c r="DT30" s="15"/>
-      <c r="DU30" s="15"/>
-      <c r="DV30" s="15"/>
-      <c r="DW30" s="15"/>
-      <c r="DX30" s="15"/>
-      <c r="DY30" s="15"/>
-      <c r="DZ30" s="15"/>
-      <c r="EA30" s="15"/>
-      <c r="EB30" s="15"/>
-      <c r="EC30" s="15"/>
-      <c r="ED30" s="15"/>
-      <c r="EE30" s="15"/>
-      <c r="EF30" s="15"/>
-      <c r="EG30" s="15"/>
-      <c r="EH30" s="15"/>
-      <c r="EI30" s="15"/>
-      <c r="EJ30" s="15"/>
-      <c r="EK30" s="15"/>
-      <c r="EL30" s="15"/>
-      <c r="EM30" s="15"/>
-      <c r="EN30" s="15"/>
-      <c r="EO30" s="15"/>
-      <c r="EP30" s="15"/>
-      <c r="EQ30" s="15"/>
-      <c r="ER30" s="15"/>
-      <c r="ES30" s="15"/>
-      <c r="ET30" s="15"/>
-      <c r="EU30" s="15"/>
-      <c r="EV30" s="15"/>
-      <c r="EW30" s="15"/>
-      <c r="EX30" s="15"/>
-      <c r="EY30" s="15"/>
-      <c r="EZ30" s="15"/>
-      <c r="FA30" s="15"/>
-      <c r="FB30" s="15"/>
-      <c r="FC30" s="15"/>
-      <c r="FD30" s="15"/>
-      <c r="FE30" s="15"/>
-      <c r="FF30" s="15"/>
-      <c r="FG30" s="15"/>
-      <c r="FH30" s="15"/>
-      <c r="FI30" s="15"/>
-      <c r="FJ30" s="15"/>
-      <c r="FK30" s="15"/>
-      <c r="FL30" s="15"/>
-      <c r="FM30" s="15"/>
-      <c r="FN30" s="15"/>
-      <c r="FO30" s="15"/>
-      <c r="FP30" s="15"/>
-      <c r="FQ30" s="15"/>
-      <c r="FR30" s="15"/>
-      <c r="FS30" s="15"/>
-      <c r="FT30" s="15"/>
-      <c r="FU30" s="15"/>
-      <c r="FV30" s="15"/>
-      <c r="FW30" s="15"/>
-      <c r="FX30" s="15"/>
-      <c r="FY30" s="15"/>
-      <c r="FZ30" s="15"/>
-      <c r="GA30" s="15"/>
-      <c r="GB30" s="15"/>
-      <c r="GC30" s="15"/>
-      <c r="GD30" s="15"/>
-      <c r="GE30" s="15"/>
-      <c r="GF30" s="15"/>
-      <c r="GG30" s="15"/>
-      <c r="GH30" s="15"/>
-      <c r="GI30" s="15"/>
-      <c r="GJ30" s="15"/>
-      <c r="GK30" s="15"/>
-      <c r="GL30" s="15"/>
-      <c r="GM30" s="15"/>
-      <c r="GN30" s="15"/>
-      <c r="GO30" s="15"/>
-      <c r="GP30" s="15"/>
-      <c r="GQ30" s="15"/>
-      <c r="GR30" s="15"/>
-      <c r="GS30" s="15"/>
-      <c r="GT30" s="15"/>
-      <c r="GU30" s="15"/>
-      <c r="GV30" s="15"/>
-      <c r="GW30" s="15"/>
-      <c r="GX30" s="15"/>
-      <c r="GY30" s="15"/>
-      <c r="GZ30" s="15"/>
-      <c r="HA30" s="15"/>
-      <c r="HB30" s="15"/>
-      <c r="HC30" s="15"/>
-      <c r="HD30" s="15"/>
-      <c r="HE30" s="15"/>
-      <c r="HF30" s="15"/>
-      <c r="HG30" s="15"/>
-      <c r="HH30" s="15"/>
-      <c r="HI30" s="15"/>
-      <c r="HJ30" s="15"/>
+    <row r="30" spans="1:218" x14ac:dyDescent="0.25">
+      <c r="M30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="1"/>
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="1"/>
+      <c r="BK30" s="1"/>
+      <c r="BL30" s="1"/>
+      <c r="BM30" s="1"/>
+      <c r="BN30" s="1"/>
+      <c r="BO30" s="1"/>
+      <c r="BP30" s="1"/>
+      <c r="BQ30" s="1"/>
+      <c r="BR30" s="1"/>
+      <c r="BS30" s="1"/>
+      <c r="BT30" s="1"/>
+      <c r="BU30" s="1"/>
+      <c r="BV30" s="1"/>
+      <c r="BW30" s="1"/>
+      <c r="BX30" s="1"/>
+      <c r="BY30" s="1"/>
+      <c r="BZ30" s="1"/>
+      <c r="CA30" s="1"/>
+      <c r="CB30" s="1"/>
+      <c r="CC30" s="1"/>
+      <c r="CD30" s="1"/>
+      <c r="CE30" s="1"/>
+      <c r="CF30" s="1"/>
+      <c r="CG30" s="1"/>
+      <c r="CH30" s="1"/>
+      <c r="CI30" s="1"/>
+      <c r="CJ30" s="1"/>
+      <c r="CK30" s="1"/>
+      <c r="CL30" s="1"/>
+      <c r="CM30" s="1"/>
+      <c r="CN30" s="1"/>
+      <c r="CO30" s="1"/>
+      <c r="CP30" s="1"/>
+      <c r="CQ30" s="1"/>
+      <c r="CR30" s="1"/>
+      <c r="CS30" s="1"/>
+      <c r="CT30" s="1"/>
+      <c r="CU30" s="1"/>
+      <c r="CV30" s="1"/>
+      <c r="CW30" s="1"/>
+      <c r="CX30" s="1"/>
+      <c r="CY30" s="1"/>
+      <c r="CZ30" s="1"/>
+      <c r="DA30" s="1"/>
+      <c r="DB30" s="1"/>
+      <c r="DC30" s="1"/>
+      <c r="DD30" s="1"/>
+      <c r="DE30" s="1"/>
+      <c r="DF30" s="1"/>
+      <c r="DG30" s="1"/>
+      <c r="DH30" s="1"/>
+      <c r="DI30" s="1"/>
+      <c r="DJ30" s="1"/>
+      <c r="DK30" s="1"/>
+      <c r="DL30" s="1"/>
+      <c r="DM30" s="1"/>
+      <c r="DN30" s="1"/>
+      <c r="DO30" s="1"/>
+      <c r="DP30" s="1"/>
+      <c r="DQ30" s="1"/>
+      <c r="DR30" s="1"/>
+      <c r="DS30" s="1"/>
+      <c r="DT30" s="1"/>
+      <c r="DU30" s="1"/>
+      <c r="DV30" s="1"/>
+      <c r="DW30" s="1"/>
+      <c r="DX30" s="1"/>
+      <c r="DY30" s="1"/>
+      <c r="DZ30" s="1"/>
+      <c r="EA30" s="1"/>
+      <c r="EB30" s="1"/>
+      <c r="EC30" s="1"/>
+      <c r="ED30" s="1"/>
+      <c r="EE30" s="1"/>
+      <c r="EF30" s="1"/>
+      <c r="EG30" s="1"/>
+      <c r="EH30" s="1"/>
+      <c r="EI30" s="1"/>
+      <c r="EJ30" s="1"/>
+      <c r="EK30" s="1"/>
+      <c r="EL30" s="1"/>
+      <c r="EM30" s="1"/>
+      <c r="EN30" s="1"/>
+      <c r="EO30" s="1"/>
+      <c r="EP30" s="1"/>
+      <c r="EQ30" s="1"/>
+      <c r="ER30" s="1"/>
+      <c r="ES30" s="1"/>
+      <c r="ET30" s="1"/>
+      <c r="EU30" s="1"/>
+      <c r="EV30" s="1"/>
+      <c r="EW30" s="1"/>
+      <c r="EX30" s="1"/>
+      <c r="EY30" s="1"/>
+      <c r="EZ30" s="1"/>
+      <c r="FA30" s="1"/>
+      <c r="FB30" s="1"/>
+      <c r="FC30" s="1"/>
+      <c r="FD30" s="1"/>
+      <c r="FE30" s="1"/>
+      <c r="FF30" s="1"/>
+      <c r="FG30" s="1"/>
+      <c r="FH30" s="1"/>
+      <c r="FI30" s="1"/>
+      <c r="FJ30" s="1"/>
+      <c r="FK30" s="1"/>
+      <c r="FL30" s="1"/>
+      <c r="FM30" s="1"/>
+      <c r="FN30" s="1"/>
+      <c r="FO30" s="1"/>
+      <c r="FP30" s="1"/>
+      <c r="FQ30" s="1"/>
+      <c r="FR30" s="1"/>
+      <c r="FS30" s="1"/>
+      <c r="FT30" s="1"/>
+      <c r="FU30" s="1"/>
+      <c r="FV30" s="1"/>
+      <c r="FW30" s="1"/>
+      <c r="FX30" s="1"/>
+      <c r="FY30" s="1"/>
+      <c r="FZ30" s="1"/>
+      <c r="GA30" s="1"/>
+      <c r="GB30" s="1"/>
+      <c r="GC30" s="1"/>
+      <c r="GD30" s="1"/>
+      <c r="GE30" s="1"/>
+      <c r="GF30" s="1"/>
+      <c r="GG30" s="1"/>
+      <c r="GH30" s="1"/>
+      <c r="GI30" s="1"/>
+      <c r="GJ30" s="1"/>
+      <c r="GK30" s="1"/>
+      <c r="GL30" s="1"/>
+      <c r="GM30" s="1"/>
+      <c r="GN30" s="1"/>
+      <c r="GO30" s="1"/>
+      <c r="GP30" s="1"/>
+      <c r="GQ30" s="1"/>
+      <c r="GR30" s="1"/>
+      <c r="GS30" s="1"/>
+      <c r="GT30" s="1"/>
+      <c r="GU30" s="1"/>
+      <c r="GV30" s="1"/>
+      <c r="GW30" s="1"/>
+      <c r="GX30" s="1"/>
+      <c r="GY30" s="1"/>
+      <c r="GZ30" s="1"/>
+      <c r="HA30" s="1"/>
+      <c r="HB30" s="1"/>
+      <c r="HC30" s="1"/>
+      <c r="HD30" s="1"/>
+      <c r="HE30" s="1"/>
+      <c r="HF30" s="1"/>
+      <c r="HG30" s="1"/>
+      <c r="HH30" s="1"/>
+      <c r="HI30" s="1"/>
+      <c r="HJ30" s="1"/>
     </row>
-    <row r="31" spans="1:218" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="15"/>
-      <c r="AF31" s="15"/>
-      <c r="AG31" s="15"/>
-      <c r="AH31" s="15"/>
-      <c r="AI31" s="15"/>
-      <c r="AJ31" s="15"/>
-      <c r="AK31" s="15"/>
-      <c r="AL31" s="15"/>
-      <c r="AM31" s="15"/>
-      <c r="AN31" s="15"/>
-      <c r="AO31" s="15"/>
-      <c r="AP31" s="15"/>
-      <c r="AQ31" s="15"/>
-      <c r="AR31" s="15"/>
-      <c r="AS31" s="15"/>
-      <c r="AT31" s="15"/>
-      <c r="AU31" s="15"/>
-      <c r="AV31" s="15"/>
-      <c r="AW31" s="15"/>
-      <c r="AX31" s="15"/>
-      <c r="AY31" s="15"/>
-      <c r="AZ31" s="15"/>
-      <c r="BA31" s="15"/>
-      <c r="BB31" s="15"/>
-      <c r="BC31" s="15"/>
-      <c r="BD31" s="15"/>
-      <c r="BE31" s="15"/>
-      <c r="BF31" s="15"/>
-      <c r="BG31" s="15"/>
-      <c r="BH31" s="15"/>
-      <c r="BI31" s="15"/>
-      <c r="BJ31" s="15"/>
-      <c r="BK31" s="15"/>
-      <c r="BL31" s="15"/>
-      <c r="BM31" s="15"/>
-      <c r="BN31" s="15"/>
-      <c r="BO31" s="15"/>
-      <c r="BP31" s="15"/>
-      <c r="BQ31" s="15"/>
-      <c r="BR31" s="15"/>
-      <c r="BS31" s="15"/>
-      <c r="BT31" s="15"/>
-      <c r="BU31" s="15"/>
-      <c r="BV31" s="15"/>
-      <c r="BW31" s="15"/>
-      <c r="BX31" s="15"/>
-      <c r="BY31" s="15"/>
-      <c r="BZ31" s="15"/>
-      <c r="CA31" s="15"/>
-      <c r="CB31" s="15"/>
-      <c r="CC31" s="15"/>
-      <c r="CD31" s="15"/>
-      <c r="CE31" s="15"/>
-      <c r="CF31" s="15"/>
-      <c r="CG31" s="15"/>
-      <c r="CH31" s="15"/>
-      <c r="CI31" s="15"/>
-      <c r="CJ31" s="15"/>
-      <c r="CK31" s="15"/>
-      <c r="CL31" s="15"/>
-      <c r="CM31" s="15"/>
-      <c r="CN31" s="15"/>
-      <c r="CO31" s="15"/>
-      <c r="CP31" s="15"/>
-      <c r="CQ31" s="15"/>
-      <c r="CR31" s="15"/>
-      <c r="CS31" s="15"/>
-      <c r="CT31" s="15"/>
-      <c r="CU31" s="15"/>
-      <c r="CV31" s="15"/>
-      <c r="CW31" s="15"/>
-      <c r="CX31" s="15"/>
-      <c r="CY31" s="15"/>
-      <c r="CZ31" s="15"/>
-      <c r="DA31" s="15"/>
-      <c r="DB31" s="15"/>
-      <c r="DC31" s="15"/>
-      <c r="DD31" s="15"/>
-      <c r="DE31" s="15"/>
-      <c r="DF31" s="15"/>
-      <c r="DG31" s="15"/>
-      <c r="DH31" s="15"/>
-      <c r="DI31" s="15"/>
-      <c r="DJ31" s="15"/>
-      <c r="DK31" s="15"/>
-      <c r="DL31" s="15"/>
-      <c r="DM31" s="15"/>
-      <c r="DN31" s="15"/>
-      <c r="DO31" s="15"/>
-      <c r="DP31" s="15"/>
-      <c r="DQ31" s="15"/>
-      <c r="DR31" s="15"/>
-      <c r="DS31" s="15"/>
-      <c r="DT31" s="15"/>
-      <c r="DU31" s="15"/>
-      <c r="DV31" s="15"/>
-      <c r="DW31" s="15"/>
-      <c r="DX31" s="15"/>
-      <c r="DY31" s="15"/>
-      <c r="DZ31" s="15"/>
-      <c r="EA31" s="15"/>
-      <c r="EB31" s="15"/>
-      <c r="EC31" s="15"/>
-      <c r="ED31" s="15"/>
-      <c r="EE31" s="15"/>
-      <c r="EF31" s="15"/>
-      <c r="EG31" s="15"/>
-      <c r="EH31" s="15"/>
-      <c r="EI31" s="15"/>
-      <c r="EJ31" s="15"/>
-      <c r="EK31" s="15"/>
-      <c r="EL31" s="15"/>
-      <c r="EM31" s="15"/>
-      <c r="EN31" s="15"/>
-      <c r="EO31" s="15"/>
-      <c r="EP31" s="15"/>
-      <c r="EQ31" s="15"/>
-      <c r="ER31" s="15"/>
-      <c r="ES31" s="15"/>
-      <c r="ET31" s="15"/>
-      <c r="EU31" s="15"/>
-      <c r="EV31" s="15"/>
-      <c r="EW31" s="15"/>
-      <c r="EX31" s="15"/>
-      <c r="EY31" s="15"/>
-      <c r="EZ31" s="15"/>
-      <c r="FA31" s="15"/>
-      <c r="FB31" s="15"/>
-      <c r="FC31" s="15"/>
-      <c r="FD31" s="15"/>
-      <c r="FE31" s="15"/>
-      <c r="FF31" s="15"/>
-      <c r="FG31" s="15"/>
-      <c r="FH31" s="15"/>
-      <c r="FI31" s="15"/>
-      <c r="FJ31" s="15"/>
-      <c r="FK31" s="15"/>
-      <c r="FL31" s="15"/>
-      <c r="FM31" s="15"/>
-      <c r="FN31" s="15"/>
-      <c r="FO31" s="15"/>
-      <c r="FP31" s="15"/>
-      <c r="FQ31" s="15"/>
-      <c r="FR31" s="15"/>
-      <c r="FS31" s="15"/>
-      <c r="FT31" s="15"/>
-      <c r="FU31" s="15"/>
-      <c r="FV31" s="15"/>
-      <c r="FW31" s="15"/>
-      <c r="FX31" s="15"/>
-      <c r="FY31" s="15"/>
-      <c r="FZ31" s="15"/>
-      <c r="GA31" s="15"/>
-      <c r="GB31" s="15"/>
-      <c r="GC31" s="15"/>
-      <c r="GD31" s="15"/>
-      <c r="GE31" s="15"/>
-      <c r="GF31" s="15"/>
-      <c r="GG31" s="15"/>
-      <c r="GH31" s="15"/>
-      <c r="GI31" s="15"/>
-      <c r="GJ31" s="15"/>
-      <c r="GK31" s="15"/>
-      <c r="GL31" s="15"/>
-      <c r="GM31" s="15"/>
-      <c r="GN31" s="15"/>
-      <c r="GO31" s="15"/>
-      <c r="GP31" s="15"/>
-      <c r="GQ31" s="15"/>
-      <c r="GR31" s="15"/>
-      <c r="GS31" s="15"/>
-      <c r="GT31" s="15"/>
-      <c r="GU31" s="15"/>
-      <c r="GV31" s="15"/>
-      <c r="GW31" s="15"/>
-      <c r="GX31" s="15"/>
-      <c r="GY31" s="15"/>
-      <c r="GZ31" s="15"/>
-      <c r="HA31" s="15"/>
-      <c r="HB31" s="15"/>
-      <c r="HC31" s="15"/>
-      <c r="HD31" s="15"/>
-      <c r="HE31" s="15"/>
-      <c r="HF31" s="15"/>
-      <c r="HG31" s="15"/>
-      <c r="HH31" s="15"/>
-      <c r="HI31" s="15"/>
-      <c r="HJ31" s="15"/>
+    <row r="31" spans="1:218" x14ac:dyDescent="0.25">
+      <c r="M31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1"/>
+      <c r="BH31" s="1"/>
+      <c r="BI31" s="1"/>
+      <c r="BJ31" s="1"/>
+      <c r="BK31" s="1"/>
+      <c r="BL31" s="1"/>
+      <c r="BM31" s="1"/>
+      <c r="BN31" s="1"/>
+      <c r="BO31" s="1"/>
+      <c r="BP31" s="1"/>
+      <c r="BQ31" s="1"/>
+      <c r="BR31" s="1"/>
+      <c r="BS31" s="1"/>
+      <c r="BT31" s="1"/>
+      <c r="BU31" s="1"/>
+      <c r="BV31" s="1"/>
+      <c r="BW31" s="1"/>
+      <c r="BX31" s="1"/>
+      <c r="BY31" s="1"/>
+      <c r="BZ31" s="1"/>
+      <c r="CA31" s="1"/>
+      <c r="CB31" s="1"/>
+      <c r="CC31" s="1"/>
+      <c r="CD31" s="1"/>
+      <c r="CE31" s="1"/>
+      <c r="CF31" s="1"/>
+      <c r="CG31" s="1"/>
+      <c r="CH31" s="1"/>
+      <c r="CI31" s="1"/>
+      <c r="CJ31" s="1"/>
+      <c r="CK31" s="1"/>
+      <c r="CL31" s="1"/>
+      <c r="CM31" s="1"/>
+      <c r="CN31" s="1"/>
+      <c r="CO31" s="1"/>
+      <c r="CP31" s="1"/>
+      <c r="CQ31" s="1"/>
+      <c r="CR31" s="1"/>
+      <c r="CS31" s="1"/>
+      <c r="CT31" s="1"/>
+      <c r="CU31" s="1"/>
+      <c r="CV31" s="1"/>
+      <c r="CW31" s="1"/>
+      <c r="CX31" s="1"/>
+      <c r="CY31" s="1"/>
+      <c r="CZ31" s="1"/>
+      <c r="DA31" s="1"/>
+      <c r="DB31" s="1"/>
+      <c r="DC31" s="1"/>
+      <c r="DD31" s="1"/>
+      <c r="DE31" s="1"/>
+      <c r="DF31" s="1"/>
+      <c r="DG31" s="1"/>
+      <c r="DH31" s="1"/>
+      <c r="DI31" s="1"/>
+      <c r="DJ31" s="1"/>
+      <c r="DK31" s="1"/>
+      <c r="DL31" s="1"/>
+      <c r="DM31" s="1"/>
+      <c r="DN31" s="1"/>
+      <c r="DO31" s="1"/>
+      <c r="DP31" s="1"/>
+      <c r="DQ31" s="1"/>
+      <c r="DR31" s="1"/>
+      <c r="DS31" s="1"/>
+      <c r="DT31" s="1"/>
+      <c r="DU31" s="1"/>
+      <c r="DV31" s="1"/>
+      <c r="DW31" s="1"/>
+      <c r="DX31" s="1"/>
+      <c r="DY31" s="1"/>
+      <c r="DZ31" s="1"/>
+      <c r="EA31" s="1"/>
+      <c r="EB31" s="1"/>
+      <c r="EC31" s="1"/>
+      <c r="ED31" s="1"/>
+      <c r="EE31" s="1"/>
+      <c r="EF31" s="1"/>
+      <c r="EG31" s="1"/>
+      <c r="EH31" s="1"/>
+      <c r="EI31" s="1"/>
+      <c r="EJ31" s="1"/>
+      <c r="EK31" s="1"/>
+      <c r="EL31" s="1"/>
+      <c r="EM31" s="1"/>
+      <c r="EN31" s="1"/>
+      <c r="EO31" s="1"/>
+      <c r="EP31" s="1"/>
+      <c r="EQ31" s="1"/>
+      <c r="ER31" s="1"/>
+      <c r="ES31" s="1"/>
+      <c r="ET31" s="1"/>
+      <c r="EU31" s="1"/>
+      <c r="EV31" s="1"/>
+      <c r="EW31" s="1"/>
+      <c r="EX31" s="1"/>
+      <c r="EY31" s="1"/>
+      <c r="EZ31" s="1"/>
+      <c r="FA31" s="1"/>
+      <c r="FB31" s="1"/>
+      <c r="FC31" s="1"/>
+      <c r="FD31" s="1"/>
+      <c r="FE31" s="1"/>
+      <c r="FF31" s="1"/>
+      <c r="FG31" s="1"/>
+      <c r="FH31" s="1"/>
+      <c r="FI31" s="1"/>
+      <c r="FJ31" s="1"/>
+      <c r="FK31" s="1"/>
+      <c r="FL31" s="1"/>
+      <c r="FM31" s="1"/>
+      <c r="FN31" s="1"/>
+      <c r="FO31" s="1"/>
+      <c r="FP31" s="1"/>
+      <c r="FQ31" s="1"/>
+      <c r="FR31" s="1"/>
+      <c r="FS31" s="1"/>
+      <c r="FT31" s="1"/>
+      <c r="FU31" s="1"/>
+      <c r="FV31" s="1"/>
+      <c r="FW31" s="1"/>
+      <c r="FX31" s="1"/>
+      <c r="FY31" s="1"/>
+      <c r="FZ31" s="1"/>
+      <c r="GA31" s="1"/>
+      <c r="GB31" s="1"/>
+      <c r="GC31" s="1"/>
+      <c r="GD31" s="1"/>
+      <c r="GE31" s="1"/>
+      <c r="GF31" s="1"/>
+      <c r="GG31" s="1"/>
+      <c r="GH31" s="1"/>
+      <c r="GI31" s="1"/>
+      <c r="GJ31" s="1"/>
+      <c r="GK31" s="1"/>
+      <c r="GL31" s="1"/>
+      <c r="GM31" s="1"/>
+      <c r="GN31" s="1"/>
+      <c r="GO31" s="1"/>
+      <c r="GP31" s="1"/>
+      <c r="GQ31" s="1"/>
+      <c r="GR31" s="1"/>
+      <c r="GS31" s="1"/>
+      <c r="GT31" s="1"/>
+      <c r="GU31" s="1"/>
+      <c r="GV31" s="1"/>
+      <c r="GW31" s="1"/>
+      <c r="GX31" s="1"/>
+      <c r="GY31" s="1"/>
+      <c r="GZ31" s="1"/>
+      <c r="HA31" s="1"/>
+      <c r="HB31" s="1"/>
+      <c r="HC31" s="1"/>
+      <c r="HD31" s="1"/>
+      <c r="HE31" s="1"/>
+      <c r="HF31" s="1"/>
+      <c r="HG31" s="1"/>
+      <c r="HH31" s="1"/>
+      <c r="HI31" s="1"/>
+      <c r="HJ31" s="1"/>
     </row>
-    <row r="32" spans="1:218" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+    <row r="32" spans="1:218" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="18">
         <f t="shared" ref="C32:I32" si="35">C11/C9</f>
         <v>0.30844664194478777</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="18">
         <f t="shared" si="35"/>
         <v>0.33492750322629616</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="18">
         <f t="shared" si="35"/>
         <v>0.34405033533844981</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="18">
         <f t="shared" si="35"/>
         <v>0.35175811567793752</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="18">
         <f t="shared" si="35"/>
         <v>0.38331636624947607</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="18">
         <f t="shared" si="35"/>
         <v>0.41375351587164916</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="18">
         <f t="shared" si="35"/>
         <v>0.4507881479876496</v>
       </c>
-      <c r="J32" s="24">
+      <c r="J32" s="18">
         <f>J11/J9</f>
         <v>0.49424164524421593</v>
       </c>
-      <c r="K32" s="24">
+      <c r="K32" s="18">
         <f>K11/K9</f>
         <v>0.49741007194244602</v>
       </c>
-      <c r="L32" s="24">
+      <c r="L32" s="18">
         <f t="shared" ref="L32:M32" si="36">L11/L9</f>
         <v>0.48266897746967069</v>
       </c>
-      <c r="M32" s="24">
+      <c r="M32" s="18">
         <f t="shared" si="36"/>
         <v>0.48512074538885741</v>
       </c>
-      <c r="O32" s="25"/>
-      <c r="Q32" s="24">
+      <c r="O32" s="19"/>
+      <c r="Q32" s="18">
         <f t="shared" ref="Q32:X32" si="37">Q11/Q9</f>
         <v>0.34132387436352202</v>
       </c>
-      <c r="R32" s="24">
+      <c r="R32" s="18">
         <f t="shared" si="37"/>
         <v>0.33195116332642249</v>
       </c>
-      <c r="S32" s="24">
+      <c r="S32" s="18">
         <f t="shared" si="37"/>
         <v>0.36723133264779639</v>
       </c>
-      <c r="T32" s="24">
+      <c r="T32" s="18">
         <f t="shared" si="37"/>
         <v>0.38084139972441017</v>
       </c>
-      <c r="U32" s="24">
+      <c r="U32" s="18">
         <f t="shared" si="37"/>
         <v>0.35768394345777454</v>
       </c>
-      <c r="V32" s="24">
+      <c r="V32" s="18">
         <f t="shared" si="37"/>
         <v>0.32650808753568034</v>
       </c>
-      <c r="W32" s="24">
+      <c r="W32" s="18">
         <f t="shared" si="37"/>
         <v>0.40272708388972966</v>
       </c>
-      <c r="X32" s="24">
+      <c r="X32" s="18">
         <f t="shared" si="37"/>
         <v>0.48968316879248641</v>
       </c>
-      <c r="Y32" s="24">
+      <c r="Y32" s="18">
         <v>0.47</v>
       </c>
-      <c r="Z32" s="24">
+      <c r="Z32" s="18">
         <v>0.48</v>
       </c>
-      <c r="AA32" s="24">
+      <c r="AA32" s="18">
         <v>0.49</v>
       </c>
-      <c r="AB32" s="24">
+      <c r="AB32" s="18">
         <v>0.5</v>
       </c>
-      <c r="AC32" s="24">
+      <c r="AC32" s="18">
         <v>0.51</v>
       </c>
-      <c r="AD32" s="24">
+      <c r="AD32" s="18">
         <v>0.52</v>
       </c>
-      <c r="AE32" s="24">
+      <c r="AE32" s="18">
         <v>0.52</v>
       </c>
-      <c r="AF32" s="24">
+      <c r="AF32" s="18">
         <v>0.52</v>
       </c>
-      <c r="AG32" s="24">
+      <c r="AG32" s="18">
         <v>0.52</v>
       </c>
-      <c r="AH32" s="24">
+      <c r="AH32" s="18">
         <v>0.52</v>
       </c>
     </row>
-    <row r="33" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+    <row r="33" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="18">
         <f>C17/C9</f>
         <v>3.5517099299546689E-2</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="18">
         <f t="shared" ref="D33:M33" si="38">D17/D9</f>
         <v>9.0336293934563119E-2</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="18">
         <f t="shared" si="38"/>
         <v>0.11613081656641071</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="18">
         <f t="shared" si="38"/>
         <v>8.4969966929877905E-2</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="18">
         <f t="shared" si="38"/>
         <v>0.1689921552188754</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33" s="18">
         <f t="shared" si="38"/>
         <v>0.2291487285460076</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="18">
         <f t="shared" si="38"/>
         <v>0.26017008829424193</v>
       </c>
-      <c r="J33" s="24">
+      <c r="J33" s="18">
         <f t="shared" si="38"/>
         <v>0.33275064267352178</v>
       </c>
-      <c r="K33" s="24">
+      <c r="K33" s="18">
         <f t="shared" si="38"/>
         <v>0.28009592326139088</v>
       </c>
-      <c r="L33" s="24">
+      <c r="L33" s="18">
         <f t="shared" si="38"/>
         <v>0.19360576484538905</v>
       </c>
-      <c r="M33" s="24">
+      <c r="M33" s="18">
         <f t="shared" si="38"/>
         <v>0.33480699752804738</v>
       </c>
-      <c r="O33" s="25"/>
-      <c r="Q33" s="24">
+      <c r="O33" s="19"/>
+      <c r="Q33" s="18">
         <f t="shared" ref="Q33:X33" si="39">Q17/Q9</f>
         <v>7.468962755306377E-2</v>
       </c>
-      <c r="R33" s="24">
+      <c r="R33" s="18">
         <f t="shared" si="39"/>
         <v>6.0431544191046585E-2</v>
       </c>
-      <c r="S33" s="24">
+      <c r="S33" s="18">
         <f t="shared" si="39"/>
         <v>0.12296368458083028</v>
       </c>
-      <c r="T33" s="24">
+      <c r="T33" s="18">
         <f t="shared" si="39"/>
         <v>0.14412330095435752</v>
       </c>
-      <c r="U33" s="24">
+      <c r="U33" s="18">
         <f t="shared" si="39"/>
         <v>7.843421529539675E-2</v>
       </c>
-      <c r="V33" s="24">
+      <c r="V33" s="18">
         <f t="shared" si="39"/>
         <v>6.6355851569933538E-2</v>
       </c>
-      <c r="W33" s="24">
+      <c r="W33" s="18">
         <f t="shared" si="39"/>
         <v>0.1910442446363394</v>
       </c>
-      <c r="X33" s="24">
+      <c r="X33" s="18">
         <f t="shared" si="39"/>
         <v>0.28344262688861677</v>
       </c>
-      <c r="Y33" s="24">
+      <c r="Y33" s="18">
         <v>0.25</v>
       </c>
-      <c r="Z33" s="24">
+      <c r="Z33" s="18">
         <v>0.23</v>
       </c>
-      <c r="AA33" s="24">
+      <c r="AA33" s="18">
         <v>0.21</v>
       </c>
-      <c r="AB33" s="24">
+      <c r="AB33" s="18">
         <v>0.19</v>
       </c>
-      <c r="AC33" s="24">
+      <c r="AC33" s="18">
         <v>0.17</v>
       </c>
-      <c r="AD33" s="24">
+      <c r="AD33" s="18">
         <v>0.15</v>
       </c>
-      <c r="AE33" s="24">
+      <c r="AE33" s="18">
         <v>0.15</v>
       </c>
-      <c r="AF33" s="24">
+      <c r="AF33" s="18">
         <v>0.15</v>
       </c>
-      <c r="AG33" s="24">
+      <c r="AG33" s="18">
         <v>0.15</v>
       </c>
-      <c r="AH33" s="24">
+      <c r="AH33" s="18">
         <v>0.15</v>
       </c>
     </row>
-    <row r="34" spans="1:34" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+    <row r="34" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="21">
-        <f>C21/C20</f>
+      <c r="C34" s="16">
+        <f t="shared" ref="C34:M34" si="40">C21/C20</f>
         <v>7.9999999999928519</v>
       </c>
-      <c r="D34" s="21">
-        <f>D21/D20</f>
+      <c r="D34" s="16">
+        <f t="shared" si="40"/>
         <v>1.0640204865556979</v>
       </c>
-      <c r="E34" s="21">
-        <f>E21/E20</f>
+      <c r="E34" s="16">
+        <f t="shared" si="40"/>
         <v>-0.25496221244082756</v>
       </c>
-      <c r="F34" s="21">
-        <f>F21/F20</f>
+      <c r="F34" s="16">
+        <f t="shared" si="40"/>
         <v>-7.3498964803312555E-2</v>
       </c>
-      <c r="G34" s="21">
-        <f>G21/G20</f>
+      <c r="G34" s="16">
+        <f t="shared" si="40"/>
         <v>-0.1707207207207207</v>
       </c>
-      <c r="H34" s="21">
-        <f>H21/H20</f>
+      <c r="H34" s="16">
+        <f t="shared" si="40"/>
         <v>-0.16603976356797429</v>
       </c>
-      <c r="I34" s="21">
-        <f>I21/I20</f>
+      <c r="I34" s="16">
+        <f t="shared" si="40"/>
         <v>-8.537108537108537E-2</v>
       </c>
-      <c r="J34" s="21">
-        <f>J21/J20</f>
+      <c r="J34" s="16">
+        <f t="shared" si="40"/>
         <v>-0.15461783439490451</v>
       </c>
-      <c r="K34" s="21">
-        <f>K21/K20</f>
+      <c r="K34" s="16">
+        <f t="shared" si="40"/>
         <v>-0.19042553191489361</v>
       </c>
-      <c r="L34" s="21">
-        <f>L21/L20</f>
+      <c r="L34" s="16">
+        <f t="shared" si="40"/>
         <v>-0.23328416912487709</v>
       </c>
-      <c r="M34" s="21">
-        <f>M21/M20</f>
+      <c r="M34" s="16">
+        <f t="shared" si="40"/>
         <v>-0.20827875294734069</v>
       </c>
-      <c r="O34" s="22"/>
-      <c r="Q34" s="21">
-        <f t="shared" ref="Q34:X34" si="40">Q21/Q20</f>
+      <c r="O34" s="17"/>
+      <c r="Q34" s="16">
+        <f t="shared" ref="Q34:X34" si="41">Q21/Q20</f>
         <v>-4.9135577797998098E-2</v>
       </c>
-      <c r="R34" s="21">
-        <f t="shared" si="40"/>
+      <c r="R34" s="16">
+        <f t="shared" si="41"/>
         <v>2.1594684385382069E-2</v>
       </c>
-      <c r="S34" s="21">
-        <f t="shared" si="40"/>
+      <c r="S34" s="16">
+        <f t="shared" si="41"/>
         <v>0.48493150684931474</v>
       </c>
-      <c r="T34" s="21">
-        <f t="shared" si="40"/>
+      <c r="T34" s="16">
+        <f t="shared" si="41"/>
         <v>-0.16569536423841064</v>
       </c>
-      <c r="U34" s="21">
-        <f t="shared" si="40"/>
+      <c r="U34" s="16">
+        <f t="shared" si="41"/>
         <v>-0.2265992049150711</v>
       </c>
-      <c r="V34" s="21">
+      <c r="V34" s="16">
         <f>V21/V20</f>
         <v>0.33861834654586492</v>
       </c>
-      <c r="W34" s="21">
-        <f t="shared" si="40"/>
+      <c r="W34" s="16">
+        <f t="shared" si="41"/>
         <v>-0.12661945068232849</v>
       </c>
-      <c r="X34" s="21">
-        <f t="shared" si="40"/>
+      <c r="X34" s="16">
+        <f t="shared" si="41"/>
         <v>-0.19405638811277615</v>
       </c>
-      <c r="Y34" s="21">
+      <c r="Y34" s="16">
         <v>-0.15</v>
       </c>
-      <c r="Z34" s="21">
+      <c r="Z34" s="16">
         <v>-0.15</v>
       </c>
-      <c r="AA34" s="21">
+      <c r="AA34" s="16">
         <v>-0.15</v>
       </c>
-      <c r="AB34" s="21">
+      <c r="AB34" s="16">
         <v>-0.15</v>
       </c>
-      <c r="AC34" s="21">
+      <c r="AC34" s="16">
         <v>-0.15</v>
       </c>
-      <c r="AD34" s="21">
+      <c r="AD34" s="16">
         <v>-0.15</v>
       </c>
-      <c r="AE34" s="21">
+      <c r="AE34" s="16">
         <v>-0.15</v>
       </c>
-      <c r="AF34" s="21">
+      <c r="AF34" s="16">
         <v>-0.15</v>
       </c>
-      <c r="AG34" s="21">
+      <c r="AG34" s="16">
         <v>-0.15</v>
       </c>
-      <c r="AH34" s="21">
+      <c r="AH34" s="16">
         <v>-0.15</v>
       </c>
     </row>
-    <row r="35" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="19" t="s">
+    <row r="35" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="19">
-        <f t="shared" ref="C35:I35" si="41">C9/C12-1</f>
+      <c r="C35" s="10">
+        <f t="shared" ref="C35:I35" si="42">C9/C12-1</f>
         <v>6.773862908392057</v>
       </c>
-      <c r="D35" s="19">
-        <f t="shared" si="41"/>
+      <c r="D35" s="10">
+        <f t="shared" si="42"/>
         <v>7.4388212684176818</v>
       </c>
-      <c r="E35" s="19">
-        <f t="shared" si="41"/>
+      <c r="E35" s="10">
+        <f t="shared" si="42"/>
         <v>8.0540878928258408</v>
       </c>
-      <c r="F35" s="19">
-        <f t="shared" si="41"/>
+      <c r="F35" s="10">
+        <f t="shared" si="42"/>
         <v>7.535138248847927</v>
       </c>
-      <c r="G35" s="19">
-        <f t="shared" si="41"/>
+      <c r="G35" s="10">
+        <f t="shared" si="42"/>
         <v>9.0414912808177998</v>
       </c>
-      <c r="H35" s="19">
-        <f t="shared" si="41"/>
+      <c r="H35" s="10">
+        <f t="shared" si="42"/>
         <v>10.275728155339806</v>
       </c>
-      <c r="I35" s="19">
-        <f t="shared" si="41"/>
+      <c r="I35" s="10">
+        <f t="shared" si="42"/>
         <v>10.495018679950187</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J35" s="10">
         <f>J9/J12-1</f>
         <v>11.404336734693876</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K35" s="10">
         <f>K9/K12-1</f>
         <v>11.902227722772277</v>
       </c>
-      <c r="L35" s="19">
+      <c r="L35" s="10">
         <f>L9/L12-1</f>
         <v>14.07977991746905</v>
       </c>
-      <c r="M35" s="19">
+      <c r="M35" s="10">
         <f>M9/M12-1</f>
         <v>14.422287390029325</v>
       </c>
-      <c r="O35" s="20"/>
-      <c r="Q35" s="19">
-        <f t="shared" ref="Q35:X35" si="42">Q9/Q12-1</f>
+      <c r="O35" s="11"/>
+      <c r="Q35" s="10">
+        <f t="shared" ref="Q35:X35" si="43">Q9/Q12-1</f>
         <v>7.8122006554071088</v>
       </c>
-      <c r="R35" s="19">
-        <f t="shared" si="42"/>
+      <c r="R35" s="10">
+        <f t="shared" si="43"/>
         <v>7.6378509838602699</v>
       </c>
-      <c r="S35" s="19">
-        <f t="shared" si="42"/>
+      <c r="S35" s="10">
+        <f t="shared" si="43"/>
         <v>8.3208340339667064</v>
       </c>
-      <c r="T35" s="19">
-        <f t="shared" si="42"/>
+      <c r="T35" s="10">
+        <f t="shared" si="43"/>
         <v>8.0338097433533111</v>
       </c>
-      <c r="U35" s="19">
-        <f t="shared" si="42"/>
+      <c r="U35" s="10">
+        <f t="shared" si="43"/>
         <v>7.6097675144328285</v>
       </c>
-      <c r="V35" s="19">
-        <f t="shared" si="42"/>
+      <c r="V35" s="10">
+        <f t="shared" si="43"/>
         <v>7.1738995178099234</v>
       </c>
-      <c r="W35" s="19">
-        <f t="shared" si="42"/>
+      <c r="W35" s="10">
+        <f t="shared" si="43"/>
         <v>9.289770992366412</v>
       </c>
-      <c r="X35" s="19">
-        <f t="shared" si="42"/>
+      <c r="X35" s="10">
+        <f t="shared" si="43"/>
         <v>12.87237587470843</v>
       </c>
     </row>
-    <row r="36" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O36" s="20"/>
+    <row r="36" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O36" s="11"/>
     </row>
-    <row r="37" spans="1:34" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+    <row r="37" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="O37" s="22"/>
-      <c r="R37" s="21">
-        <f t="shared" ref="R37:W37" si="43">R18/Q7</f>
+      <c r="O37" s="17"/>
+      <c r="R37" s="16">
+        <f t="shared" ref="R37:W37" si="44">R18/Q7</f>
         <v>0.13770171149144256</v>
       </c>
-      <c r="S37" s="21">
-        <f t="shared" si="43"/>
+      <c r="S37" s="16">
+        <f t="shared" si="44"/>
         <v>4.5637672544746044E-2</v>
       </c>
-      <c r="T37" s="21">
-        <f t="shared" si="43"/>
+      <c r="T37" s="16">
+        <f t="shared" si="44"/>
         <v>4.7871089155492833E-2</v>
       </c>
-      <c r="U37" s="21">
-        <f t="shared" si="43"/>
+      <c r="U37" s="16">
+        <f t="shared" si="44"/>
         <v>5.8314331559834474E-2</v>
       </c>
-      <c r="V37" s="21">
-        <f t="shared" si="43"/>
+      <c r="V37" s="16">
+        <f t="shared" si="44"/>
         <v>5.012416076519819E-2</v>
       </c>
-      <c r="W37" s="21">
-        <f t="shared" si="43"/>
+      <c r="W37" s="16">
+        <f t="shared" si="44"/>
         <v>4.3237807943690296E-2</v>
       </c>
-      <c r="X37" s="21">
+      <c r="X37" s="16">
         <f>X18/W7</f>
         <v>3.368546094777481E-2</v>
       </c>
-      <c r="Y37" s="21">
+      <c r="Y37" s="16">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="Z37" s="23">
+      <c r="Z37" s="16">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AA37" s="23">
+      <c r="AA37" s="16">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AB37" s="23">
+      <c r="AB37" s="16">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AC37" s="23">
+      <c r="AC37" s="16">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AD37" s="23">
+      <c r="AD37" s="16">
         <v>3.925E-2</v>
       </c>
-      <c r="AE37" s="23">
+      <c r="AE37" s="16">
         <v>3.925E-2</v>
       </c>
-      <c r="AF37" s="23">
+      <c r="AF37" s="16">
         <v>3.925E-2</v>
       </c>
-      <c r="AG37" s="23">
+      <c r="AG37" s="16">
         <v>3.925E-2</v>
       </c>
-      <c r="AH37" s="23">
+      <c r="AH37" s="16">
         <v>3.925E-2</v>
       </c>
     </row>
@@ -6354,98 +6400,98 @@
       <c r="B38" s="10"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:34" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
+    <row r="39" spans="1:34" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="24">
-        <f t="shared" ref="G39:I39" si="44">G9/C9-1</f>
+      <c r="G39" s="18">
+        <f t="shared" ref="G39:I39" si="45">G9/C9-1</f>
         <v>0.37610218376596638</v>
       </c>
-      <c r="H39" s="24">
-        <f t="shared" si="44"/>
+      <c r="H39" s="18">
+        <f t="shared" si="45"/>
         <v>0.32247779549077649</v>
       </c>
-      <c r="I39" s="24">
-        <f t="shared" si="44"/>
+      <c r="I39" s="18">
+        <f t="shared" si="45"/>
         <v>0.2764295097835856</v>
       </c>
-      <c r="J39" s="24">
+      <c r="J39" s="18">
         <f>J9/F9-1</f>
         <v>0.31268137949652419</v>
       </c>
-      <c r="K39" s="24">
+      <c r="K39" s="18">
         <f>K9/G9-1</f>
         <v>0.24857775914725422</v>
       </c>
-      <c r="L39" s="24">
+      <c r="L39" s="18">
         <f>L9/H9-1</f>
         <v>0.25859594741978076</v>
       </c>
-      <c r="M39" s="24">
+      <c r="M39" s="18">
         <f>M9/I9-1</f>
         <v>0.13948323492768555</v>
       </c>
-      <c r="O39" s="25"/>
-      <c r="R39" s="24">
+      <c r="O39" s="19"/>
+      <c r="R39" s="18">
         <f>R9/Q9-1</f>
         <v>0.11759826077006696</v>
       </c>
-      <c r="S39" s="24">
-        <f t="shared" ref="S39:X39" si="45">S9/R9-1</f>
+      <c r="S39" s="18">
+        <f t="shared" ref="S39:X39" si="46">S9/R9-1</f>
         <v>0.41879751209398752</v>
       </c>
-      <c r="T39" s="24">
-        <f t="shared" si="45"/>
+      <c r="T39" s="18">
+        <f t="shared" si="46"/>
         <v>6.0471577276253408E-2</v>
       </c>
-      <c r="U39" s="24">
-        <f t="shared" si="45"/>
+      <c r="U39" s="18">
+        <f t="shared" si="46"/>
         <v>-6.1293231036184004E-2</v>
       </c>
-      <c r="V39" s="24">
-        <f t="shared" si="45"/>
+      <c r="V39" s="18">
+        <f t="shared" si="46"/>
         <v>-4.7662196447988414E-2</v>
       </c>
-      <c r="W39" s="24">
-        <f t="shared" si="45"/>
+      <c r="W39" s="18">
+        <f t="shared" si="46"/>
         <v>0.28254995242626069</v>
       </c>
-      <c r="X39" s="24">
-        <f t="shared" si="45"/>
+      <c r="X39" s="18">
+        <f t="shared" si="46"/>
         <v>0.23537790438885442</v>
       </c>
-      <c r="Y39" s="24">
+      <c r="Y39" s="18">
         <v>0.13500000000000001</v>
       </c>
-      <c r="Z39" s="24">
+      <c r="Z39" s="18">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AA39" s="24">
+      <c r="AA39" s="18">
         <v>0.115</v>
       </c>
-      <c r="AB39" s="24">
+      <c r="AB39" s="18">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="AC39" s="24">
+      <c r="AC39" s="18">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD39" s="24">
+      <c r="AD39" s="18">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="AE39" s="24">
+      <c r="AE39" s="18">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="AF39" s="24">
+      <c r="AF39" s="18">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="AG39" s="24">
+      <c r="AG39" s="18">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="AH39" s="24">
+      <c r="AH39" s="18">
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
@@ -6454,15 +6500,15 @@
         <v>22</v>
       </c>
       <c r="G40" s="10">
-        <f t="shared" ref="G40:I40" si="46">G12/C12-1</f>
+        <f t="shared" ref="G40:I40" si="47">G12/C12-1</f>
         <v>6.5342729019859158E-2</v>
       </c>
       <c r="H40" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-1.0249839846252384E-2</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>5.3837485914609573E-3</v>
       </c>
       <c r="J40" s="10">
@@ -6470,15 +6516,15 @@
         <v>-9.6774193548387011E-2</v>
       </c>
       <c r="K40" s="10">
-        <f t="shared" ref="K40:M40" si="47">K12/G12-1</f>
+        <f t="shared" ref="K40:M40" si="48">K12/G12-1</f>
         <v>-2.8262176788935722E-2</v>
       </c>
       <c r="L40" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-5.8899676375404497E-2</v>
       </c>
       <c r="M40" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-0.15068493150684903</v>
       </c>
       <c r="O40" s="11"/>
@@ -6487,27 +6533,27 @@
         <v>0.1401562893874464</v>
       </c>
       <c r="S40" s="10">
-        <f t="shared" ref="S40:X40" si="48">+S12/R12-1</f>
+        <f t="shared" ref="S40:X40" si="49">+S12/R12-1</f>
         <v>0.31483528631439306</v>
       </c>
       <c r="T40" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>9.4165125273246941E-2</v>
       </c>
       <c r="U40" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-1.506070385738445E-2</v>
       </c>
       <c r="V40" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>3.120611639881421E-3</v>
       </c>
       <c r="W40" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1.8820967491056217E-2</v>
       </c>
       <c r="X40" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-8.3664122137404484E-2</v>
       </c>
     </row>
@@ -6532,15 +6578,15 @@
         <v>4.9318435754189851</v>
       </c>
       <c r="K41" s="10">
-        <f t="shared" ref="K41:M41" si="49">K22/G22-1</f>
+        <f t="shared" ref="K41:M41" si="50">K22/G22-1</f>
         <v>1.4801738185768603</v>
       </c>
       <c r="L41" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>4.8324742268046617E-3</v>
       </c>
       <c r="M41" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.41744840525328497</v>
       </c>
       <c r="O41" s="11"/>
@@ -6549,67 +6595,67 @@
         <v>-0.11722488038277712</v>
       </c>
       <c r="S41" s="10">
-        <f t="shared" ref="S41:AH41" si="50">S22/R22-1</f>
+        <f t="shared" ref="S41:AH41" si="51">S22/R22-1</f>
         <v>3.4065040650406546</v>
       </c>
       <c r="T41" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>-0.22521525215252214</v>
       </c>
       <c r="U41" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>-0.66026353389426995</v>
       </c>
       <c r="V41" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.10467289719626893</v>
       </c>
       <c r="W41" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>3.2774957698815452</v>
       </c>
       <c r="X41" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.88271360759493667</v>
       </c>
       <c r="Y41" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>3.0680787109990337E-2</v>
       </c>
       <c r="Z41" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>8.4949475168199617E-2</v>
       </c>
       <c r="AA41" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>5.6022583656615943E-2</v>
       </c>
       <c r="AB41" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>2.9432636538673673E-2</v>
       </c>
       <c r="AC41" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>-4.9139852417048324E-3</v>
       </c>
       <c r="AD41" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>-2.7536272259296224E-2</v>
       </c>
       <c r="AE41" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>8.8844099377359154E-2</v>
       </c>
       <c r="AF41" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>8.762913318529808E-2</v>
       </c>
       <c r="AG41" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>8.650006553493883E-2</v>
       </c>
       <c r="AH41" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>8.544855971583365E-2</v>
       </c>
     </row>
@@ -6626,27 +6672,27 @@
         <v>-1.4963797264682999E-2</v>
       </c>
       <c r="S43" s="10">
-        <f t="shared" ref="S43:X43" si="51">S29/R29-1</f>
+        <f t="shared" ref="S43:X43" si="52">S29/R29-1</f>
         <v>0.92665795491669489</v>
       </c>
       <c r="T43" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.16074607884696857</v>
       </c>
       <c r="U43" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>-0.24118033744795908</v>
       </c>
       <c r="V43" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>-5.1015497160456724E-2</v>
       </c>
       <c r="W43" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.92210163302566084</v>
       </c>
       <c r="X43" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.54237467018469676</v>
       </c>
     </row>
@@ -6670,7 +6716,7 @@
       <c r="B2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="16">
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
@@ -6678,7 +6724,7 @@
       <c r="B3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="16">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
